--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -465,19 +465,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>71.28</v>
+        <v>75.87</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a moderate score due to their experience with relevant technologies such as MongoDB, ReactJS, JavaScript, Web Development, and NodeJS. The projects they have worked on demonstrate their proficiency in these skills, as well as additional skills such as Django, Python, Computer Vision, Image Processing, Data Analysis, and PyTorch. However, their score is not higher due to lack of experience with certain technologies such as ReactJS and NodeJS, which are required for the job.</t>
+          <t xml:space="preserve">The candidate has a moderate score, given their experience in various projects using the required skills. However, their projects mainly focus on data analysis and machine learning, while the job description requires web and mobile development skills. This suggests that the candidate may not have enough experience in the specific skills needed for the job, resulting in a moderate score. </t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated a strong willingness to come to Japan, expressing interest in the country's leading position in AI and the desire to be a part of its work culture. They also mentioned being open to working in different countries after graduation. Additionally, they mentioned the opportunity to learn a new language as a factor that interests them in working in Japan. As for their personality, the applicant has highlighted strengths such as being a hard-worker, good at grasping new concepts, and working well in a team. They also mentioned an aspiration to improve their skills, showing a willingness to address their weaknesses. Furthermore, they provided an example of facing a challenge in a project and learning important lessons from it, showcasing problem-solving skills. The unique background in engineering and graphic design sets them apart and they have a specialty in data analytics. Overall, while the applicant shows a positive attitude and enthusiasm for Japan, there is room for improvement in addressing weaknesses and showcasing specific soft skills desired by the company.</t>
+          <t>The applicant has shown a strong willingness to go to Japan, citing Japan's leadership in AI and a desire to be part of the work culture. They have also expressed an interest in learning a new language while working in Japan. Additionally, the applicant has demonstrated a solid understanding of their career plan and expectations from the company. They have shown strengths in being a hard worker, good at grasping new concepts, and working well in a team. Although they mention a weakness in acquiring new skills and a preference to not work alone, they have taken steps to address these areas. They have also provided a specific example of a challenge faced and how they overcame it, showing resilience and problem-solving skills. Their unique background in engineering and graphic design sets them apart, and they have a specialty in data analytics. These qualities make them a strong candidate for the company's soft skills requirements, including communication, teamwork, problem-solving, time management, and adaptability.</t>
         </is>
       </c>
     </row>
@@ -486,20 +486,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>82.23</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The candidate has a high score of 82.23 because their projects demonstrate strong proficiency in the required skills for the job - MongoDB, ReactJS, JavaScript, Web Development, and NodeJS. The projects also showcase a diverse range of technologies such as Flutter, Dart, Firebase, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, and Docker, which highlights their ability to adapt and learn quickly. This makes them a suitable candidate for the SDE Intern position.</t>
+The candidate has a high score of 84.01 as their projects showcase a strong proficiency in the skills required for the job, including MongoDB, ReactJS, JavaScript, NodeJS, and Web Development. Additionally, the projects demonstrate the ability to develop high-quality web/mobile applications and suggest new product features. The candidate's extensive experience with various technologies, such as Flutter, Dart, Firebase, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, and Docker, further strengthens their aptness for the SDE Intern position.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant shows a strong willingness to come to Japan, citing their interest in the country's AI advancements and work culture. They express openness to working in different countries, including Japan. The applicant's expectations from the company align with their career plan and their desire to work on projects in their field of interest. They also express a willingness to learn new skills and contribute to cutting-edge technologies during the internship. The applicant demonstrates strong strengths such as being a hard-worker, good at grasping new concepts, and working well with a team. However, they also acknowledge their weaknesses and are actively taking steps to address them. The applicant shares an example of facing a challenge in a team project and how they overcame it, displaying problem-solving skills and adaptability. They also highlight their unique background in both engineering and graphic design, which sets them apart. Additionally, the applicant mentions their specialty in data analytics, demonstrating expertise in an important field for the company. Overall, the applicant's answers exhibit a positive attitude, adaptability, strong communication and teamwork skills, problem-solving abilities, and a genuine interest in the company and working in Japan.</t>
+          <t>The applicant demonstrates a strong willingness to go to Japan. They express a deep interest in the field of AI, specifically mentioning Japan's leading position in AI. They are fascinated by Japan's work culture and express a desire to be a part of it. They also mention their willingness to work in different countries, including Japan. Additionally, they express an interest in learning a new language while working in Japan. Overall, their reasons show a strong motivation to go to Japan.</t>
         </is>
       </c>
     </row>
@@ -508,12 +508,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>82.41</v>
+        <v>79.06</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The candidate has been given a high score of 82.41 due to their strong skills in MongoDB, ReactJS, JavaScript, Web Development and NodeJS, which are essential for the job. Additionally, their projects showcase expertise in Computer Vision, Image Processing, Python, PyTorch, Tensorflow, Sklearn, Django Rest Framework and ReactJS which are crucial for designing and developing high-quality web/mobile applications.</t>
+The candidate has a high score due to their strong skills in MongoDB, ReactJS, JavaScript, Web Development, and NodeJS which align with the job requirements. Their projects demonstrate their proficiency in Computer Vision, Image Processing, Python, PyTorch, Tensorflow, Sklearn, and Django Rest Framework, ReactJS. These skills showcase their ability to design and develop high-quality web/mobile applications as per the job description. </t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to come to Japan and work for the company. They express a deep interest in the field of AI and are fascinated by the work culture in Japan. They also mention their willingness to learn a new language while working in Japan. Additionally, they express a desire to contribute to cutting-edge technologies and work on projects related to their chosen field. Overall, their answers indicate a high level of enthusiasm and motivation to work in Japan.</t>
+          <t>The applicant demonstrates a strong willingness to go to Japan, citing their interest in AI and the work culture. They express openness to working in various countries, including Japan. Additionally, they mention their desire to learn a new language while working in Japan. Their career plan aligns with their interest in AI and backend development. They have specific expectations from the company, such as working on projects related to their chosen field and receiving a decent package. During the internship, they aim to contribute to cutting-edge AI/ML technologies and learn new skills. These factors indicate a high level of interest in working in Japan and with the company.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -465,19 +465,20 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>75.87</v>
+        <v>78.29000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The candidate has a moderate score, given their experience in various projects using the required skills. However, their projects mainly focus on data analysis and machine learning, while the job description requires web and mobile development skills. This suggests that the candidate may not have enough experience in the specific skills needed for the job, resulting in a moderate score. </t>
+          <t xml:space="preserve">
+The candidate has a high score because they have experience in all the required skills for the job, such as MongoDB, ReactJS, JavaScript, Web Development, and NodeJS. Their projects demonstrate a strong understanding and application of these skills, particularly in developing web applications. Additionally, they have experience in other relevant areas, such as Computer Vision and Data Analysis, which showcases their versatility and potential for growth in the field of technology.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has shown a strong willingness to go to Japan, citing Japan's leadership in AI and a desire to be part of the work culture. They have also expressed an interest in learning a new language while working in Japan. Additionally, the applicant has demonstrated a solid understanding of their career plan and expectations from the company. They have shown strengths in being a hard worker, good at grasping new concepts, and working well in a team. Although they mention a weakness in acquiring new skills and a preference to not work alone, they have taken steps to address these areas. They have also provided a specific example of a challenge faced and how they overcame it, showing resilience and problem-solving skills. Their unique background in engineering and graphic design sets them apart, and they have a specialty in data analytics. These qualities make them a strong candidate for the company's soft skills requirements, including communication, teamwork, problem-solving, time management, and adaptability.</t>
+          <t>The applicant demonstrates a strong willingness to come to Japan, citing Japan's leading position in AI and a fascination with the work culture. They are open to working in different countries, including Japan. Additionally, they express a desire to learn a new language while working in Japan. Their career plan aligns with their interest in AI/ML and they have clear expectations from the company. This displays a high level of willingness. In terms of personality, the applicant highlights strengths such as being a hard-worker, good at grasping new concepts, and working well with a team. They acknowledge weaknesses and are actively working to address them, such as wanting to improve their ability to work alone. They provide an example of a challenge faced, showcasing problem-solving skills, adaptability, and open communication. Their unique background in both engineering and graphic design sets them apart, and they specialize in data analytics. Overall, their answers demonstrate a positive personality and a strong willingness to go to Japan.</t>
         </is>
       </c>
     </row>
@@ -486,12 +487,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>84.01000000000001</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The candidate has a high score of 84.01 as their projects showcase a strong proficiency in the skills required for the job, including MongoDB, ReactJS, JavaScript, NodeJS, and Web Development. Additionally, the projects demonstrate the ability to develop high-quality web/mobile applications and suggest new product features. The candidate's extensive experience with various technologies, such as Flutter, Dart, Firebase, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, and Docker, further strengthens their aptness for the SDE Intern position.</t>
+The candidate has been given a high score of 86.99 because their projects reflect a strong understanding of the required skills for the job, including MongoDB, ReactJS, JavaScript, Web Development, NodeJS. Additionally, the projects showcase a diverse set of technologies and applications, demonstrating the candidate's ability to adapt and learn new technologies quickly. This makes them well-suited for the SDE Intern position.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -499,7 +500,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to go to Japan. They express a deep interest in the field of AI, specifically mentioning Japan's leading position in AI. They are fascinated by Japan's work culture and express a desire to be a part of it. They also mention their willingness to work in different countries, including Japan. Additionally, they express an interest in learning a new language while working in Japan. Overall, their reasons show a strong motivation to go to Japan.</t>
+          <t>The applicant demonstrates a strong willingness to come to Japan, citing their interest in the country's AI field and work culture. They are open to working in different countries, including Japan. Additionally, the applicant has clear career plans and expectations from the company. They express their eagerness to contribute to cutting-edge technologies and learn new skills during the internship. Moreover, the applicant possesses strengths such as being a hard worker, having good grasping abilities, and being a good team player. However, they do mention a weakness in acquiring new skills quickly and preferring not to work alone. Although they mention taking steps to address these weaknesses, more details would be beneficial. Overall, their unique background in engineering and graphic design, as well as their specialization in data analytics, sets them apart from others and aligns with the company's requirements. They showcase important soft skills like communication, teamwork, problem-solving, adaptability, but there is room for improvement in addressing their weaknesses and highlighting specific instances of these skills.</t>
         </is>
       </c>
     </row>
@@ -508,12 +509,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>79.06</v>
+        <v>71.37</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The candidate has a high score due to their strong skills in MongoDB, ReactJS, JavaScript, Web Development, and NodeJS which align with the job requirements. Their projects demonstrate their proficiency in Computer Vision, Image Processing, Python, PyTorch, Tensorflow, Sklearn, and Django Rest Framework, ReactJS. These skills showcase their ability to design and develop high-quality web/mobile applications as per the job description. </t>
+The candidate has a moderate score of 71.37. This is because they have experience in MongoDB, ReactJS, JavaScript, Web Development, and NodeJS which are required for the job. Their projects also showcase skills in Computer Vision, Image Processing, Python, PyTorch, Tensorflow, Sklearn, Django Rest Framework, and ReactJS. However, their score may have been lower due to lack of experience in some key technologies such as MongoDB and ReactJS.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -521,7 +522,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to go to Japan, citing their interest in AI and the work culture. They express openness to working in various countries, including Japan. Additionally, they mention their desire to learn a new language while working in Japan. Their career plan aligns with their interest in AI and backend development. They have specific expectations from the company, such as working on projects related to their chosen field and receiving a decent package. During the internship, they aim to contribute to cutting-edge AI/ML technologies and learn new skills. These factors indicate a high level of interest in working in Japan and with the company.</t>
+          <t>Based on the applicant's answers, it can be seen that they have a genuine interest in coming to Japan and are specifically attracted to the AI field and the work culture. They also express a willingness to adapt to new cultures and learn new skills. Additionally, they have clear career plans and expectations from the company which align with their interests. The applicant demonstrates strengths in teamwork and communication and shows a willingness to address their areas for improvement. They have also showcased their ability to overcome challenges and their unique background and specialty. Overall, the applicant exhibits a positive attitude and a good fit for the company's soft skills requirements. However, there is room for improvement in terms of their ability to work independently and acquire new skills more efficiently. Hence, the score of 4 out of 5 is given.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -465,20 +465,20 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>78.29000000000001</v>
+        <v>72.03</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The candidate has a high score because they have experience in all the required skills for the job, such as MongoDB, ReactJS, JavaScript, Web Development, and NodeJS. Their projects demonstrate a strong understanding and application of these skills, particularly in developing web applications. Additionally, they have experience in other relevant areas, such as Computer Vision and Data Analysis, which showcases their versatility and potential for growth in the field of technology.</t>
+The candidate has a high score due to their diverse set of skills, including MongoDB, ReactJS, JavaScript, Web Development, NodeJS, Django, Python, Computer Vision, Image Processing, Data Analysis, PyTorch, Tensorflow, Sklearn. They have also worked on various projects involving web/mobile application development, bias detection, and human activity annotation, showcasing their proficiency in these areas. Their experience in implementing research papers further adds to their aptness for the job.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to come to Japan, citing Japan's leading position in AI and a fascination with the work culture. They are open to working in different countries, including Japan. Additionally, they express a desire to learn a new language while working in Japan. Their career plan aligns with their interest in AI/ML and they have clear expectations from the company. This displays a high level of willingness. In terms of personality, the applicant highlights strengths such as being a hard-worker, good at grasping new concepts, and working well with a team. They acknowledge weaknesses and are actively working to address them, such as wanting to improve their ability to work alone. They provide an example of a challenge faced, showcasing problem-solving skills, adaptability, and open communication. Their unique background in both engineering and graphic design sets them apart, and they specialize in data analytics. Overall, their answers demonstrate a positive personality and a strong willingness to go to Japan.</t>
+          <t>The applicant demonstrates a strong willingness to come to Japan and work for the company. They are deeply interested in the field of AI and are attracted to the work culture in Japan. They also express an openness to working in different countries. Their expectation from the company aligns with their career plan and they have a clear goal to contribute to cutting-edge AI/ML technologies. Additionally, they have shown adaptability to different cultures and a desire to learn new skills while working in Japan. In terms of personality, the applicant demonstrates strengths in being a hard-worker, grasping new concepts, and working well with a team. They acknowledge their weaknesses and are taking steps to address them. Their example of a challenge shows resilience, problem-solving skills, and the ability to work collaboratively. The lessons learned from the experience highlight the importance of adaptability and contingency planning. Their unique background in both engineering and graphic design sets them apart and they have a specialty in data analytics. Overall, the applicant exhibits several of the important soft skills that the company is looking for such as communication, teamwork, problem-solving, adaptability, and time management.</t>
         </is>
       </c>
     </row>
@@ -487,20 +487,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>86.98999999999999</v>
+        <v>86.34</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The candidate has been given a high score of 86.99 because their projects reflect a strong understanding of the required skills for the job, including MongoDB, ReactJS, JavaScript, Web Development, NodeJS. Additionally, the projects showcase a diverse set of technologies and applications, demonstrating the candidate's ability to adapt and learn new technologies quickly. This makes them well-suited for the SDE Intern position.</t>
+The candidate has a high score due to their strong skills in MongoDB, ReactJS, JavaScript, Web Development, and NodeJS, which are all required for the job. Additionally, the projects they have worked on demonstrate their ability to design and develop high-quality web/mobile applications, as well as their proficiency in various tools and technologies such as Flutter, Dart, Firebase, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, and Docker. </t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to come to Japan, citing their interest in the country's AI field and work culture. They are open to working in different countries, including Japan. Additionally, the applicant has clear career plans and expectations from the company. They express their eagerness to contribute to cutting-edge technologies and learn new skills during the internship. Moreover, the applicant possesses strengths such as being a hard worker, having good grasping abilities, and being a good team player. However, they do mention a weakness in acquiring new skills quickly and preferring not to work alone. Although they mention taking steps to address these weaknesses, more details would be beneficial. Overall, their unique background in engineering and graphic design, as well as their specialization in data analytics, sets them apart from others and aligns with the company's requirements. They showcase important soft skills like communication, teamwork, problem-solving, adaptability, but there is room for improvement in addressing their weaknesses and highlighting specific instances of these skills.</t>
+          <t>The applicant demonstrates a strong willingness to come to Japan, expressing interest in the country's leading AI industry and work culture. They also mention their willingness to adapt to a new culture and learn a new language while working in Japan. In terms of personality, the applicant mentions their strengths as being a hard-worker, quick learner, and good team player. They also acknowledge their weaknesses, but mention taking steps to improve. The example of a challenge they faced shows their ability to problem-solve and work collaboratively. With their unique background in engineering and graphic design, along with a specialty in data analytics, the applicant brings valuable skills to the company. Overall, the applicant demonstrates good alignment with the company's soft skills such as adaptability, communication, teamwork, and problem-solving. However, it is important to note that they mention their preference to not work alone, which may have a slight impact on their adaptability and time management in certain scenarios.</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>71.37</v>
+        <v>81.7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The candidate has a moderate score of 71.37. This is because they have experience in MongoDB, ReactJS, JavaScript, Web Development, and NodeJS which are required for the job. Their projects also showcase skills in Computer Vision, Image Processing, Python, PyTorch, Tensorflow, Sklearn, Django Rest Framework, and ReactJS. However, their score may have been lower due to lack of experience in some key technologies such as MongoDB and ReactJS.</t>
+          <t>The candidate has a moderate score of 81.7, which indicates that they possess the necessary skills and experience for the job. Their projects showcase their proficiency in various technologies like MongoDB, ReactJS, JavaScript, Web Development, NodeJS, Computer Vision, Image Processing, Python, PyTorch, Tensorflow, Sklearn, and Django Rest Framework. These skills align with the job requirements, making them a suitable candidate for the SDE Intern position.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -522,7 +521,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Based on the applicant's answers, it can be seen that they have a genuine interest in coming to Japan and are specifically attracted to the AI field and the work culture. They also express a willingness to adapt to new cultures and learn new skills. Additionally, they have clear career plans and expectations from the company which align with their interests. The applicant demonstrates strengths in teamwork and communication and shows a willingness to address their areas for improvement. They have also showcased their ability to overcome challenges and their unique background and specialty. Overall, the applicant exhibits a positive attitude and a good fit for the company's soft skills requirements. However, there is room for improvement in terms of their ability to work independently and acquire new skills more efficiently. Hence, the score of 4 out of 5 is given.</t>
+          <t>The applicant shows a strong willingness to go to Japan based on their interest in the country's AI and work culture. They also express adaptability to other cultures and a desire to learn a new language while working in Japan. In terms of personality, the applicant highlights strengths such as being hardworking, a quick learner, and good teamwork skills. They also acknowledge areas for improvement and have taken steps to address them. Additionally, the applicant demonstrates problem-solving skills and the ability to learn from challenges. Their unique background in engineering and graphic design, as well as their specialty in data analytics, set them apart from others. Overall, the applicant's willingness combined with their positive personality traits make them a strong candidate for working in Japan.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,20 +465,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>72.03</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The candidate has a high score due to their diverse set of skills, including MongoDB, ReactJS, JavaScript, Web Development, NodeJS, Django, Python, Computer Vision, Image Processing, Data Analysis, PyTorch, Tensorflow, Sklearn. They have also worked on various projects involving web/mobile application development, bias detection, and human activity annotation, showcasing their proficiency in these areas. Their experience in implementing research papers further adds to their aptness for the job.</t>
+          <t>The candidate has a score of 75.18 which indicates a high aptness for the SDE Intern position. The candidate's experience in working on projects involving MERN stack development, ReactJS, JavaScript, and Python aligns well with the required skills for the job. Additionally, their experience in implementing machine learning models and data analysis demonstrates their expertise in relevant technologies.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to come to Japan and work for the company. They are deeply interested in the field of AI and are attracted to the work culture in Japan. They also express an openness to working in different countries. Their expectation from the company aligns with their career plan and they have a clear goal to contribute to cutting-edge AI/ML technologies. Additionally, they have shown adaptability to different cultures and a desire to learn new skills while working in Japan. In terms of personality, the applicant demonstrates strengths in being a hard-worker, grasping new concepts, and working well with a team. They acknowledge their weaknesses and are taking steps to address them. Their example of a challenge shows resilience, problem-solving skills, and the ability to work collaboratively. The lessons learned from the experience highlight the importance of adaptability and contingency planning. Their unique background in both engineering and graphic design sets them apart and they have a specialty in data analytics. Overall, the applicant exhibits several of the important soft skills that the company is looking for such as communication, teamwork, problem-solving, adaptability, and time management.</t>
+          <t>The applicant demonstrates a strong willingness to come to Japan by expressing interest in the country's leading position in AI, the desire to be a part of Japan's work culture, and the interest in learning a new language. Additionally, the applicant's career plan aligns with the company's focus on AI/ML. The applicant's willingness to work in Japan is further reinforced by their openness to working in different countries. In terms of personality, the applicant displays strengths in teamwork, problem-solving, and adaptability. The experience shared reflects the ability to overcome challenges through collaboration and adaptability, aligning with the company's desired soft skills. The applicant also has a unique background in both engineering and graphic design, which sets them apart and adds value to the company's projects. The applicant's demonstrated willingness, career plan, and alignment with the company's needs contribute to the overall positive score.</t>
         </is>
       </c>
     </row>
@@ -487,20 +486,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>86.34</v>
+        <v>82.98</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The candidate has a high score due to their strong skills in MongoDB, ReactJS, JavaScript, Web Development, and NodeJS, which are all required for the job. Additionally, the projects they have worked on demonstrate their ability to design and develop high-quality web/mobile applications, as well as their proficiency in various tools and technologies such as Flutter, Dart, Firebase, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, and Docker. </t>
+          <t>The applicant has a high score because they have experience working with the required technologies (MongoDB, ReactJS, JavaScript, Web Development, NodeJS) in their projects. They have successfully developed web/mobile applications, utilized WebSockets and WebRTC APIs, and displayed data in easy-to-understand graphs. Their diverse project experience demonstrates their ability to handle different aspects of the job description.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to come to Japan, expressing interest in the country's leading AI industry and work culture. They also mention their willingness to adapt to a new culture and learn a new language while working in Japan. In terms of personality, the applicant mentions their strengths as being a hard-worker, quick learner, and good team player. They also acknowledge their weaknesses, but mention taking steps to improve. The example of a challenge they faced shows their ability to problem-solve and work collaboratively. With their unique background in engineering and graphic design, along with a specialty in data analytics, the applicant brings valuable skills to the company. Overall, the applicant demonstrates good alignment with the company's soft skills such as adaptability, communication, teamwork, and problem-solving. However, it is important to note that they mention their preference to not work alone, which may have a slight impact on their adaptability and time management in certain scenarios.</t>
+          <t>The applicant demonstrates a strong willingness to come to Japan, expressing interest in the country's AI industry and work culture. They also show adaptability to other cultures and a desire to learn a new language. Their career plan aligns with the company's focus on AI/ML. In terms of personality, the applicant exhibits strengths in teamwork, adaptability, and problem-solving, which are crucial soft skills for the company. They have also reflected on their weaknesses and taken steps to address them, showing a willingness to improve and grow. Overall, the applicant presents a strong fit for the company and shows a genuine interest in working in Japan.</t>
         </is>
       </c>
     </row>
@@ -509,11 +507,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>81.7</v>
+        <v>75.28</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The candidate has a moderate score of 81.7, which indicates that they possess the necessary skills and experience for the job. Their projects showcase their proficiency in various technologies like MongoDB, ReactJS, JavaScript, Web Development, NodeJS, Computer Vision, Image Processing, Python, PyTorch, Tensorflow, Sklearn, and Django Rest Framework. These skills align with the job requirements, making them a suitable candidate for the SDE Intern position.</t>
+          <t>The candidate has a high score of 75.28 as their projects show significant experience in web and mobile application development using MongoDB, ReactJS, JavaScript, and NodeJS. Additionally, their projects demonstrate proficiency in computer vision, image processing, and machine learning using Python, PyTorch, Tensorflow, and Sklearn. These skills closely align with the required skills for the SDE Intern position, making the candidate well-suited for the job.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -521,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant shows a strong willingness to go to Japan based on their interest in the country's AI and work culture. They also express adaptability to other cultures and a desire to learn a new language while working in Japan. In terms of personality, the applicant highlights strengths such as being hardworking, a quick learner, and good teamwork skills. They also acknowledge areas for improvement and have taken steps to address them. Additionally, the applicant demonstrates problem-solving skills and the ability to learn from challenges. Their unique background in engineering and graphic design, as well as their specialty in data analytics, set them apart from others. Overall, the applicant's willingness combined with their positive personality traits make them a strong candidate for working in Japan.</t>
+          <t>The applicant demonstrates a strong willingness to come to Japan, citing the country's leading position in AI and expressing a genuine interest in the work culture. The career plan and the willingness to work in different countries, including Japan, show flexibility and adaptability. The applicant's strengths in teamwork and problem-solving, along with the ability to bridge technical and creative aspects, make them a good fit for the company. However, the preference not to work alone and the need to improve skills could be perceived as minor concerns. Overall, the applicant shows potential and a positive attitude, aligning well with the company's values and requirements.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -465,11 +465,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>75.18000000000001</v>
+        <v>61.22</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a score of 75.18 which indicates a high aptness for the SDE Intern position. The candidate's experience in working on projects involving MERN stack development, ReactJS, JavaScript, and Python aligns well with the required skills for the job. Additionally, their experience in implementing machine learning models and data analysis demonstrates their expertise in relevant technologies.</t>
+          <t>The candidate is suitable for the SDE Intern position as they have experience in MERN stack development, including MongoDB, ReactJS, JavaScript, and NodeJS, which are the required skills for the job. Additionally, their projects demonstrate their ability to develop web and mobile applications, utilize various frameworks and libraries, and work with data analysis and computer vision techniques. The score of 61.22 reflects their proficiency in these areas.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to come to Japan by expressing interest in the country's leading position in AI, the desire to be a part of Japan's work culture, and the interest in learning a new language. Additionally, the applicant's career plan aligns with the company's focus on AI/ML. The applicant's willingness to work in Japan is further reinforced by their openness to working in different countries. In terms of personality, the applicant displays strengths in teamwork, problem-solving, and adaptability. The experience shared reflects the ability to overcome challenges through collaboration and adaptability, aligning with the company's desired soft skills. The applicant also has a unique background in both engineering and graphic design, which sets them apart and adds value to the company's projects. The applicant's demonstrated willingness, career plan, and alignment with the company's needs contribute to the overall positive score.</t>
+          <t>The applicant demonstrates a strong willingness to come to Japan by showing a genuine interest in the country's AI industry and work culture. Their open-mindedness about working in different countries, including Japan, reflects adaptability. Their career plan aligns with the company's needs, and their expectations and goals during the internship show motivation and commitment. The applicant's strengths in teamwork, problem-solving, and communication, along with their willingness to address weaknesses, make them a good candidate for the company's soft skills requirements.</t>
         </is>
       </c>
     </row>
@@ -486,11 +486,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>82.98</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a high score because they have experience working with the required technologies (MongoDB, ReactJS, JavaScript, Web Development, NodeJS) in their projects. They have successfully developed web/mobile applications, utilized WebSockets and WebRTC APIs, and displayed data in easy-to-understand graphs. Their diverse project experience demonstrates their ability to handle different aspects of the job description.</t>
+          <t>The candidate has a score of 80.96, indicating a strong suitability for the SDE Intern position. The candidate's projects demonstrate proficiency in key technologies such as ReactJS, NodeJS, and Web Development, which align with the job requirements. Additionally, their experience with Firebase and Dart showcases adaptability and a diverse skill set.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to come to Japan, expressing interest in the country's AI industry and work culture. They also show adaptability to other cultures and a desire to learn a new language. Their career plan aligns with the company's focus on AI/ML. In terms of personality, the applicant exhibits strengths in teamwork, adaptability, and problem-solving, which are crucial soft skills for the company. They have also reflected on their weaknesses and taken steps to address them, showing a willingness to improve and grow. Overall, the applicant presents a strong fit for the company and shows a genuine interest in working in Japan.</t>
+          <t>The applicant shows a strong willingness to come to Japan, citing an interest in the country's AI industry and work culture. They also express a desire to learn a new language. Their career plan aligns with their field of interest, and they are open to working in different countries, including Japan. The applicant demonstrates an understanding of their strengths and weaknesses, and they are actively taking steps to address their areas for improvement. They have shown an example of facing a challenge and learning from it, displaying problem-solving skills. Their unique background in engineering and graphic design, as well as their specialty in data analytics, showcase their versatility. Overall, the applicant's willingness to embrace a new culture and their adaptability, along with their strong technical skills, make them a suitable candidate for the company's needs.</t>
         </is>
       </c>
     </row>
@@ -507,11 +507,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>75.28</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The candidate has a high score of 75.28 as their projects show significant experience in web and mobile application development using MongoDB, ReactJS, JavaScript, and NodeJS. Additionally, their projects demonstrate proficiency in computer vision, image processing, and machine learning using Python, PyTorch, Tensorflow, and Sklearn. These skills closely align with the required skills for the SDE Intern position, making the candidate well-suited for the job.</t>
+          <t>The candidate has a good score because they possess the required skills of MongoDB, ReactJS, JavaScript, Web Development, and NodeJS mentioned in the job description. Additionally, their projects demonstrate expertise in Computer Vision, Image Processing, Python, PyTorch, Tensorflow, Sklearn, and Django Rest Framework, which are valuable for the job.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to come to Japan, citing the country's leading position in AI and expressing a genuine interest in the work culture. The career plan and the willingness to work in different countries, including Japan, show flexibility and adaptability. The applicant's strengths in teamwork and problem-solving, along with the ability to bridge technical and creative aspects, make them a good fit for the company. However, the preference not to work alone and the need to improve skills could be perceived as minor concerns. Overall, the applicant shows potential and a positive attitude, aligning well with the company's values and requirements.</t>
+          <t>The applicant has expressed a strong willingness to come to Japan, showcasing a genuine interest in the country's AI advancements and work culture. They have also demonstrated adaptability to other cultures and a willingness to learn the Japanese language. In terms of personality, the applicant displays strengths in teamwork, problem-solving, and communication, as well as a clear plan for career development. However, the preference not to work alone may need further development, and the willingness to learn new skills and address weaknesses is encouraging. Overall, the applicant exhibits promising qualities and a genuine desire to work in Japan, but could benefit from further self-improvement and professional growth.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate is suitable for the SDE Intern position as they have experience in MERN stack development, including MongoDB, ReactJS, JavaScript, and NodeJS, which are the required skills for the job. Additionally, their projects demonstrate their ability to develop web and mobile applications, utilize various frameworks and libraries, and work with data analysis and computer vision techniques. The score of 61.22 reflects their proficiency in these areas.</t>
+          <t>The candidate has a moderate score of 61.22. The candidate's projects demonstrate experience in ReactJS, Django, Python, JavaScript, Computer Vision, Image Processing, Data Analysis, PyTorch, and Tensorflow, which align with the required skills for the SDE Intern role. However, the candidate lacks experience in MongoDB and NodeJS, which are specifically mentioned in the job description. Therefore, the candidate's score is moderate due to some missing skills.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to come to Japan by showing a genuine interest in the country's AI industry and work culture. Their open-mindedness about working in different countries, including Japan, reflects adaptability. Their career plan aligns with the company's needs, and their expectations and goals during the internship show motivation and commitment. The applicant's strengths in teamwork, problem-solving, and communication, along with their willingness to address weaknesses, make them a good candidate for the company's soft skills requirements.</t>
+          <t>The applicant has a strong interest in the field of AI and is motivated to work in Japan due to its leading position in this area. The willingness to adapt to a new culture and learn a new language demonstrates good adaptability. The applicant also shows good communication skills and a collaborative attitude by highlighting their ability to work in a team, address challenges with a problem-solving approach, and bridge the gap between technical and creative aspects. However, the applicant's preference to not work alone and the need to improve skills could impact their ability to work independently, which is an important aspect to consider in a foreign work environment. Overall, the applicant's strong motivation, interest in learning and contributing to the company's projects, and their positive attitude towards cultural adaptability contribute to the given score.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has a score of 80.96, indicating a strong suitability for the SDE Intern position. The candidate's projects demonstrate proficiency in key technologies such as ReactJS, NodeJS, and Web Development, which align with the job requirements. Additionally, their experience with Firebase and Dart showcases adaptability and a diverse skill set.</t>
+          <t>The candidate has a high score of 80.96, indicating a good fit for the SDE Intern position. They have experience in MERN stack development, which aligns with the required skills. Their projects demonstrate proficiency in relevant technologies such as ReactJS and NodeJS. The projects also showcase the ability to build web applications and utilize Firebase for backend functionality. The common skills between the job description and candidate's projects suggest a strong match for the position.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant shows a strong willingness to come to Japan, citing an interest in the country's AI industry and work culture. They also express a desire to learn a new language. Their career plan aligns with their field of interest, and they are open to working in different countries, including Japan. The applicant demonstrates an understanding of their strengths and weaknesses, and they are actively taking steps to address their areas for improvement. They have shown an example of facing a challenge and learning from it, displaying problem-solving skills. Their unique background in engineering and graphic design, as well as their specialty in data analytics, showcase their versatility. Overall, the applicant's willingness to embrace a new culture and their adaptability, along with their strong technical skills, make them a suitable candidate for the company's needs.</t>
+          <t>The applicant has a strong interest in the field of AI and is willing to work in Japan to be a part of the leading AI advancements in the country. The applicant also expressed a desire to learn a new language and adapt to a new culture, demonstrating adaptability and openness. Furthermore, the applicant showcased good communication and teamwork skills through their experience in collaborative problem-solving and their ability to bridge the gap between technical and creative aspects in projects. The only drawback is the preference to not work alone, which might need to be addressed for smoother project execution in the future.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The candidate has a good score because they possess the required skills of MongoDB, ReactJS, JavaScript, Web Development, and NodeJS mentioned in the job description. Additionally, their projects demonstrate expertise in Computer Vision, Image Processing, Python, PyTorch, Tensorflow, Sklearn, and Django Rest Framework, which are valuable for the job.</t>
+          <t>The candidate has a moderate score of 76.6. The candidate's projects demonstrate proficiency in relevant skills such as ReactJS, Django Rest Framework, and Python. However, the candidate's experience with MongoDB, NodeJS, and Web Development, which are required skills for the job, is not mentioned in their projects. Hence, the candidate's score reflects a moderate suitability for the SDE Intern role due to partial alignment with the required skills.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has expressed a strong willingness to come to Japan, showcasing a genuine interest in the country's AI advancements and work culture. They have also demonstrated adaptability to other cultures and a willingness to learn the Japanese language. In terms of personality, the applicant displays strengths in teamwork, problem-solving, and communication, as well as a clear plan for career development. However, the preference not to work alone may need further development, and the willingness to learn new skills and address weaknesses is encouraging. Overall, the applicant exhibits promising qualities and a genuine desire to work in Japan, but could benefit from further self-improvement and professional growth.</t>
+          <t>The applicant has a strong interest in Japan and the AI field, demonstrating a willingness to adapt to a new culture and work environment. The applicant also shows good communication skills, teamwork, problem-solving abilities, and adaptability. However, the applicant's weakness in working alone and the need to improve skills may require further development.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -465,11 +465,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>61.22</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a moderate score of 61.22. The candidate's projects demonstrate experience in ReactJS, Django, Python, JavaScript, Computer Vision, Image Processing, Data Analysis, PyTorch, and Tensorflow, which align with the required skills for the SDE Intern role. However, the candidate lacks experience in MongoDB and NodeJS, which are specifically mentioned in the job description. Therefore, the candidate's score is moderate due to some missing skills.</t>
+          <t>The candidate has a high score of 73.65 because they possess the required skills of JavaScript, ReactJS, and Web Development, which are common between the job description and their skills. However, they lack the skills of MongoDB and NodeJS, which are also required for the job. Their experience in projects like 'LLMGuard', 'Literature Society IITJ Website', and 'Multi Model Data Analysis for Annotation of Human Activities' demonstrates their proficiency in relevant technologies and problem-solving abilities.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has a strong interest in the field of AI and is motivated to work in Japan due to its leading position in this area. The willingness to adapt to a new culture and learn a new language demonstrates good adaptability. The applicant also shows good communication skills and a collaborative attitude by highlighting their ability to work in a team, address challenges with a problem-solving approach, and bridge the gap between technical and creative aspects. However, the applicant's preference to not work alone and the need to improve skills could impact their ability to work independently, which is an important aspect to consider in a foreign work environment. Overall, the applicant's strong motivation, interest in learning and contributing to the company's projects, and their positive attitude towards cultural adaptability contribute to the given score.</t>
+          <t>The applicant demonstrates a strong interest in Japan and the field of AI/ML, showing a willingness to adapt to a new culture and work environment. They have good communication skills, evident from their ability to bridge the gap between technical and creative aspects in projects, and their collaborative problem-solving approach to overcome setbacks. The applicant also expresses a desire to work in a team and is open to addressing their weaknesses by learning to work alone. Their career plan aligns with the company's focus on AI/ML, and their expectations from the company are reasonable. However, the applicant's preference to work in a team may require further development of their time management skills to ensure efficient project execution.</t>
         </is>
       </c>
     </row>
@@ -486,11 +486,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>80.95999999999999</v>
+        <v>79.92</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has a high score of 80.96, indicating a good fit for the SDE Intern position. They have experience in MERN stack development, which aligns with the required skills. Their projects demonstrate proficiency in relevant technologies such as ReactJS and NodeJS. The projects also showcase the ability to build web applications and utilize Firebase for backend functionality. The common skills between the job description and candidate's projects suggest a strong match for the position.</t>
+          <t>The candidate has a high score of 79.92 because they possess the required skills of MongoDB, ReactJS, JavaScript, NodeJS which are common with the job description. The candidate also has experience in working on projects related to web and mobile applications. However, the candidate lacks skills in Web Development, which may affect their ability to design and develop high-quality applications using MERN stack technologies.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has a strong interest in the field of AI and is willing to work in Japan to be a part of the leading AI advancements in the country. The applicant also expressed a desire to learn a new language and adapt to a new culture, demonstrating adaptability and openness. Furthermore, the applicant showcased good communication and teamwork skills through their experience in collaborative problem-solving and their ability to bridge the gap between technical and creative aspects in projects. The only drawback is the preference to not work alone, which might need to be addressed for smoother project execution in the future.</t>
+          <t>The applicant has demonstrated a strong interest in the field of AI and a willingness to work in Japan, citing the country's leading position in AI and the desire to be part of its work culture. The applicant also expresses a desire to learn a new language and shows adaptability to different cultures. In terms of soft skills, the applicant acknowledges strengths in teamwork and a willingness to improve on working alone, demonstrating an understanding of areas for growth and taking steps to address them. Overall, the applicant shows potential to be a valuable contributor to the company, but there is also room for further development in certain areas.</t>
         </is>
       </c>
     </row>
@@ -507,11 +507,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>76.59999999999999</v>
+        <v>74.67</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The candidate has a moderate score of 76.6. The candidate's projects demonstrate proficiency in relevant skills such as ReactJS, Django Rest Framework, and Python. However, the candidate's experience with MongoDB, NodeJS, and Web Development, which are required skills for the job, is not mentioned in their projects. Hence, the candidate's score reflects a moderate suitability for the SDE Intern role due to partial alignment with the required skills.</t>
+          <t>The candidate has a score of 74.67, which indicates a moderate aptness for the SDE Intern position. The candidate's projects demonstrate relevant skills in computer vision, image processing, and web development using Django Rest Framework and ReactJS. However, the candidate lacks skills in MongoDB, ExpressJS, and NodeJS, which are required for the job. Therefore, the candidate's score is not as high as it could be, as they do not possess all the necessary skills outlined in the job description.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has a strong interest in Japan and the AI field, demonstrating a willingness to adapt to a new culture and work environment. The applicant also shows good communication skills, teamwork, problem-solving abilities, and adaptability. However, the applicant's weakness in working alone and the need to improve skills may require further development.</t>
+          <t>The applicant has shown a strong interest in working in Japan, particularly in the field of AI. They have highlighted their fascination with the work culture and the opportunity to learn a new language. Their willingness to work in a team and their ability to adapt to new cultures has been communicated effectively. The applicant also demonstrated problem-solving skills when dealing with unexpected technical issues and showed a willingness to address their weaknesses by learning to work alone. Overall, the applicant's strong motivation, enthusiasm for the company's field of work, and ability to work in a team contribute to a high score.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>tech_reason</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a high score of 73.65 because they possess the required skills of JavaScript, ReactJS, and Web Development, which are common between the job description and their skills. However, they lack the skills of MongoDB and NodeJS, which are also required for the job. Their experience in projects like 'LLMGuard', 'Literature Society IITJ Website', and 'Multi Model Data Analysis for Annotation of Human Activities' demonstrates their proficiency in relevant technologies and problem-solving abilities.</t>
+          <t>The candidate lacks the required skills in MongoDB and NodeJS, which are crucial for the job. The projects demonstrate good proficiency in ReactJS and JavaScript, but the absence of MongoDB and NodeJS skills impacts the score.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong interest in Japan and the field of AI/ML, showing a willingness to adapt to a new culture and work environment. They have good communication skills, evident from their ability to bridge the gap between technical and creative aspects in projects, and their collaborative problem-solving approach to overcome setbacks. The applicant also expresses a desire to work in a team and is open to addressing their weaknesses by learning to work alone. Their career plan aligns with the company's focus on AI/ML, and their expectations from the company are reasonable. However, the applicant's preference to work in a team may require further development of their time management skills to ensure efficient project execution.</t>
+          <t>The candidate has demonstrated strong adaptability, problem-solving skills, and a willingness to learn in the interview answers. Additionally, the candidate's interest in AI and the desire to contribute to cutting-edge technologies align well with the company's goals, but the preference to not work alone may need to be addressed.</t>
         </is>
       </c>
     </row>
@@ -490,15 +490,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has a high score of 79.92 because they possess the required skills of MongoDB, ReactJS, JavaScript, NodeJS which are common with the job description. The candidate also has experience in working on projects related to web and mobile applications. However, the candidate lacks skills in Web Development, which may affect their ability to design and develop high-quality applications using MERN stack technologies.</t>
+          <t>The candidate lacks the required skills of MongoDB and Web Development, which are essential for the role. Although they have experience with some relevant technologies, the absence of these key skills has impacted the score.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated a strong interest in the field of AI and a willingness to work in Japan, citing the country's leading position in AI and the desire to be part of its work culture. The applicant also expresses a desire to learn a new language and shows adaptability to different cultures. In terms of soft skills, the applicant acknowledges strengths in teamwork and a willingness to improve on working alone, demonstrating an understanding of areas for growth and taking steps to address them. Overall, the applicant shows potential to be a valuable contributor to the company, but there is also room for further development in certain areas.</t>
+          <t>The candidate demonstrates strong adaptability, teamwork, and problem-solving skills. Their eagerness to immerse in a new culture and work environment, along with a clear career plan, shows a positive attitude. The expressed interest in learning from the Japanese work culture and language also demonstrates flexibility and adaptability, making them a suitable candidate for the role.</t>
         </is>
       </c>
     </row>
@@ -511,15 +511,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The candidate has a score of 74.67, which indicates a moderate aptness for the SDE Intern position. The candidate's projects demonstrate relevant skills in computer vision, image processing, and web development using Django Rest Framework and ReactJS. However, the candidate lacks skills in MongoDB, ExpressJS, and NodeJS, which are required for the job. Therefore, the candidate's score is not as high as it could be, as they do not possess all the necessary skills outlined in the job description.</t>
+          <t>The candidate lacks direct experience with MERN stack (MongoDB, ExpressJS, ReactJS, NodeJS) which are primary requirements for the job. However, the candidate's projects showcase strong skills in AI/ML, Python, and ReactJS, which could be beneficial in a tech-driven environment.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has shown a strong interest in working in Japan, particularly in the field of AI. They have highlighted their fascination with the work culture and the opportunity to learn a new language. Their willingness to work in a team and their ability to adapt to new cultures has been communicated effectively. The applicant also demonstrated problem-solving skills when dealing with unexpected technical issues and showed a willingness to address their weaknesses by learning to work alone. Overall, the applicant's strong motivation, enthusiasm for the company's field of work, and ability to work in a team contribute to a high score.</t>
+          <t>The candidate shows a strong interest in Japanese work culture and willingness to adapt to a new environment. The candidate also demonstrates good teamwork and problem-solving skills. However, there is room for improvement in time management and adaptability, which are important for working in a foreign country.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -469,15 +469,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate lacks the required skills in MongoDB and NodeJS, which are crucial for the job. The projects demonstrate good proficiency in ReactJS and JavaScript, but the absence of MongoDB and NodeJS skills impacts the score.</t>
+          <t>The candidate lacks the required skills of MongoDB and NodeJS which are essential for the role. Their past projects show strong skills in Data Analysis and Computer Vision, but these do not directly align with the job requirements.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The candidate has demonstrated strong adaptability, problem-solving skills, and a willingness to learn in the interview answers. Additionally, the candidate's interest in AI and the desire to contribute to cutting-edge technologies align well with the company's goals, but the preference to not work alone may need to be addressed.</t>
+          <t>The candidate shows good adaptability by expressing willingness to work in different countries, but may need to work on improving skills independently. The candidate's interest in learning new skills and contributing to cutting-edge technologies aligns with the company's expectations.</t>
         </is>
       </c>
     </row>
@@ -490,15 +490,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate lacks the required skills of MongoDB and Web Development, which are essential for the role. Although they have experience with some relevant technologies, the absence of these key skills has impacted the score.</t>
+          <t>The candidate lacks the required skills in MongoDB, which is essential for the job. Additionally, the candidate has knowledge of Dart and Firebase, which are not mentioned in the job description.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The candidate demonstrates strong adaptability, teamwork, and problem-solving skills. Their eagerness to immerse in a new culture and work environment, along with a clear career plan, shows a positive attitude. The expressed interest in learning from the Japanese work culture and language also demonstrates flexibility and adaptability, making them a suitable candidate for the role.</t>
+          <t>The applicant has a strong motivation to work in Japan, demonstrated by the interest in AI, the desire to be part of Japanese work culture, and the willingness to learn a new language. The applicant also shows adaptability and a collaborative approach, which align with the company's values. However, the preference not to work alone and the need to improve skills may impact the overall personality score.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The candidate lacks direct experience with MERN stack (MongoDB, ExpressJS, ReactJS, NodeJS) which are primary requirements for the job. However, the candidate's projects showcase strong skills in AI/ML, Python, and ReactJS, which could be beneficial in a tech-driven environment.</t>
+          <t>The applicant lacks the required skills of MongoDB and NodeJS, which are crucial for the MERN stack development role. The candidate excels in Python, PyTorch, Tensorflow, and Django Rest Framework, which are not directly relevant to the job description.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The candidate shows a strong interest in Japanese work culture and willingness to adapt to a new environment. The candidate also demonstrates good teamwork and problem-solving skills. However, there is room for improvement in time management and adaptability, which are important for working in a foreign country.</t>
+          <t>The applicant demonstrates enthusiasm for AI/ML and shows willingness to adapt to new cultures. They have good teamwork skills and a problem-solving attitude. However, they may need to work on independence and time management.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -469,15 +469,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate lacks the required skills of MongoDB and NodeJS which are essential for the role. Their past projects show strong skills in Data Analysis and Computer Vision, but these do not directly align with the job requirements.</t>
+          <t>The applicant's projects extensively cover web development using ReactJS and includes experience in Django, Python, and JavaScript, which align with the required skills. However, the lack of experience with MongoDB and NodeJS, as required by the job, may have led to a slightly lower score.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The candidate shows good adaptability by expressing willingness to work in different countries, but may need to work on improving skills independently. The candidate's interest in learning new skills and contributing to cutting-edge technologies aligns with the company's expectations.</t>
+          <t>The applicant shows strong adaptability, communication, teamwork, and problem-solving skills, as evidenced by the answers provided. Additionally, the willingness to work in Japan and openness to new cultures demonstrate a high level of adaptability and cultural awareness.</t>
         </is>
       </c>
     </row>
@@ -490,15 +490,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate lacks the required skills in MongoDB, which is essential for the job. Additionally, the candidate has knowledge of Dart and Firebase, which are not mentioned in the job description.</t>
+          <t>The applicant has a good score because they have experience with NodeJS, ExpressJS, ReactJS, and Web Development, which align with the company's requirements. However, the lack of experience with MongoDB and JavaScript could be a drawback based on the job description.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has a strong motivation to work in Japan, demonstrated by the interest in AI, the desire to be part of Japanese work culture, and the willingness to learn a new language. The applicant also shows adaptability and a collaborative approach, which align with the company's values. However, the preference not to work alone and the need to improve skills may impact the overall personality score.</t>
+          <t>The applicant seems adaptable, willing to learn new skills, and is enthusiastic about being part of a new work culture. They also value teamwork and are open to working in Japan, making them a good fit for the company.</t>
         </is>
       </c>
     </row>
@@ -511,15 +511,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant lacks the required skills of MongoDB and NodeJS, which are crucial for the MERN stack development role. The candidate excels in Python, PyTorch, Tensorflow, and Django Rest Framework, which are not directly relevant to the job description.</t>
+          <t>The applicant has experience in Python, PyTorch, Tensorflow, and ReactJS, which are relevant to the job's requirements. However, the lack of experience in MongoDB, ExpressJS, and NodeJS could have affected the score.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant demonstrates enthusiasm for AI/ML and shows willingness to adapt to new cultures. They have good teamwork skills and a problem-solving attitude. However, they may need to work on independence and time management.</t>
+          <t>The applicant has displayed strong adaptability and willingness to work in Japan. The responses indicate good communication, teamwork, and problem-solving skills, aligning with the company's soft skill requirements.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -469,15 +469,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant's projects extensively cover web development using ReactJS and includes experience in Django, Python, and JavaScript, which align with the required skills. However, the lack of experience with MongoDB and NodeJS, as required by the job, may have led to a slightly lower score.</t>
+          <t>The applicant has experience working on projects that involve ReactJS, JavaScript, Python, and some aspects of web development, which align well with the company's requirements. The applicant has also worked on projects related to data analysis, computer vision, and image processing, showcasing a strong technical background. However, the applicant lacks direct experience with MongoDB and NodeJS, which are specifically mentioned in the job description. MongoDB is a crucial skill required for the role, and the applicant's lack of experience in this area may have impacted the score. While the applicant possesses valuable technical skills, the absence of direct experience with the required technologies seems to have influenced the score.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant shows strong adaptability, communication, teamwork, and problem-solving skills, as evidenced by the answers provided. Additionally, the willingness to work in Japan and openness to new cultures demonstrate a high level of adaptability and cultural awareness.</t>
+          <t>The applicant demonstrates a strong willingness to work in Japan, expressing an interest in the country's work culture and the opportunity to learn a new language. The applicant also acknowledges a need for time to adapt to a new culture and demonstrates a desire to contribute to cutting-edge AI/ML technologies during the internship. Additionally, the applicant's acknowledgment of strengths in teamwork and problem-solving, along with a proactive approach to addressing weaknesses and past challenges, reflects qualities of adaptability and teamwork. Therefore, based on the provided answers and the alignment with the company's required soft skills, the applicant is scored 4 out of 5 for personality and willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a good score because they have experience with NodeJS, ExpressJS, ReactJS, and Web Development, which align with the company's requirements. However, the lack of experience with MongoDB and JavaScript could be a drawback based on the job description.</t>
+          <t>The applicant has a good score because the projects they have worked on align well with the job description. The 'SHAMIYANA APP' project showcases their web development skills using Dart and Firebase, while the 'RAPID' project highlights their expertise in NodeJS, ExpressJS, Socket.IO, and WebRTC, which are in line with the required skills for the job. Additionally, the 'SMART SENSING MIDDLEWARE' project demonstrates their proficiency in ReactJS, further matching the company's requirements. The applicant possesses a strong skill set that covers most of the required technologies and demonstrates practical experience in web and mobile application development, making them a suitable candidate for the SDE Intern role.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant seems adaptable, willing to learn new skills, and is enthusiastic about being part of a new work culture. They also value teamwork and are open to working in Japan, making them a good fit for the company.</t>
+          <t>The applicant demonstrates a strong willingness to work in Japan, evident from their deep interest in the field of AI and their admiration for Japan's work culture. Their openness to adapt to new cultures, as well as their motivation to learn a new language while working in Japan, reflects their flexibility and adaptability. The applicant's emphasis on the importance of teamwork and their acknowledgment of areas for improvement, along with their ability to overcome challenges through collaborative problem-solving, indicate good communication and teamwork skills. Overall, the applicant's responses highlight a positive attitude, adaptability, and a strong interest in being a part of Japan's work culture, warranting a score of 4.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has experience in Python, PyTorch, Tensorflow, and ReactJS, which are relevant to the job's requirements. However, the lack of experience in MongoDB, ExpressJS, and NodeJS could have affected the score.</t>
+          <t>The applicant has been given a score of 74.67 because the candidate has demonstrated strong technical skills in projects such as 'Cloudphysician's Vital Extraction Challenge' involving Computer Vision and Image Processing, 'Multi Model Data Analysis for Annotation of Human Activities' with the use of Python, PyTorch, Tensorflow, and Sklearn, and 'LLMGuard' which involved machine learning models trained for detecting hate speech and bias. Although the applicant lacks direct experience with MERN stack technologies, the demonstrated skills in Python, PyTorch, and ReactJS showcase a strong foundation in programming and machine learning, indicating the potential for quick learning and adaptation to the technologies required by the company. The diverse project experience also indicates the ability to work on complex projects and analytical problem-solving skills.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has displayed strong adaptability and willingness to work in Japan. The responses indicate good communication, teamwork, and problem-solving skills, aligning with the company's soft skill requirements.</t>
+          <t>The applicant has expressed a keen interest in working in Japan, stating admiration for the country's work culture, a willingness to learn a new language, and an openness to adapting to new cultures. The applicant's responses also demonstrate good communication skills, an inclination towards teamwork, and problem-solving abilities, as evident from the example of overcoming project setbacks and learning from the experience. The applicant also expresses a desire for personal and professional growth during the internship, indicating an adaptable and focused attitude. However, the hesitancy to work alone and the need to improve in acquiring new skills may require some support and mentorship in a new work environment. Overall, the applicant shows strong potential for fitting into the company's culture and working effectively in a cross-cultural setting.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has experience working on projects that involve ReactJS, JavaScript, Python, and some aspects of web development, which align well with the company's requirements. The applicant has also worked on projects related to data analysis, computer vision, and image processing, showcasing a strong technical background. However, the applicant lacks direct experience with MongoDB and NodeJS, which are specifically mentioned in the job description. MongoDB is a crucial skill required for the role, and the applicant's lack of experience in this area may have impacted the score. While the applicant possesses valuable technical skills, the absence of direct experience with the required technologies seems to have influenced the score.</t>
+          <t>The applicant has a high score due to the relevant projects that showcase skills in ReactJS, JavaScript, and Python, which are in line with the required skills for the SDE Intern position. Additionally, the applicant has demonstrated proficiency in Computer Vision and Image Processing, which could add value to the company's projects. However, the applicant lacks experience with MongoDB and NodeJS, which are also essential for the role, resulting in a lower but still moderate score.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to work in Japan, expressing an interest in the country's work culture and the opportunity to learn a new language. The applicant also acknowledges a need for time to adapt to a new culture and demonstrates a desire to contribute to cutting-edge AI/ML technologies during the internship. Additionally, the applicant's acknowledgment of strengths in teamwork and problem-solving, along with a proactive approach to addressing weaknesses and past challenges, reflects qualities of adaptability and teamwork. Therefore, based on the provided answers and the alignment with the company's required soft skills, the applicant is scored 4 out of 5 for personality and willingness to work in Japan.</t>
+          <t>The applicant demonstrates strong communication skills, adaptability, and a willingness to learn new skills, as evidenced by the desire to work in Japan to experience a new work culture and learn a new language. The applicant's collaborative nature, problem-solving approach, and ability to bridge the gap between technical and creative aspects in projects showcase strong teamwork and problem-solving skills. Hence, a score of 4 is suitable based on the applicant's personality and willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a good score because the projects they have worked on align well with the job description. The 'SHAMIYANA APP' project showcases their web development skills using Dart and Firebase, while the 'RAPID' project highlights their expertise in NodeJS, ExpressJS, Socket.IO, and WebRTC, which are in line with the required skills for the job. Additionally, the 'SMART SENSING MIDDLEWARE' project demonstrates their proficiency in ReactJS, further matching the company's requirements. The applicant possesses a strong skill set that covers most of the required technologies and demonstrates practical experience in web and mobile application development, making them a suitable candidate for the SDE Intern role.</t>
+          <t>The applicant has been given a score based on the projects and skills which align with the job description. The applicant has experience with web and mobile application development using technologies such as Flutter, Dart, Firebase, NodeJS, ExpressJS, ReactJS, WebRTC, HTML, and CSS. Although the applicant's projects do not directly align with the specific technologies mentioned in the job description such as MongoDB, the applicant's experience with web and mobile application development using NodeJS, ExpressJS, ReactJS, and other relevant technologies demonstrates a strong skill set that is transferable to the job requirements. It is evident that the applicant has a good understanding of web development and possesses a variety of relevant technical skills. The score reflects the alignment of the applicant's projects and skills with the responsibilities and requirements of the SDE Intern position.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to work in Japan, evident from their deep interest in the field of AI and their admiration for Japan's work culture. Their openness to adapt to new cultures, as well as their motivation to learn a new language while working in Japan, reflects their flexibility and adaptability. The applicant's emphasis on the importance of teamwork and their acknowledgment of areas for improvement, along with their ability to overcome challenges through collaborative problem-solving, indicate good communication and teamwork skills. Overall, the applicant's responses highlight a positive attitude, adaptability, and a strong interest in being a part of Japan's work culture, warranting a score of 4.</t>
+          <t>The applicant has demonstrated a strong interest in working in Japan and adapting to a new culture. Their responses indicate a positive attitude towards embracing the work culture in Japan and learning a new language. They have expressed willingness to work in various countries, including Japan, and are confident about adapting to new cultures. Additionally, the applicant acknowledges their strengths in teamwork and communication, essential soft skills required for the job. Overall, the applicant's responses reflect a positive attitude, adaptability, and willingness to work in Japan, leading to a score of 4 out of 5.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has been given a score of 74.67 because the candidate has demonstrated strong technical skills in projects such as 'Cloudphysician's Vital Extraction Challenge' involving Computer Vision and Image Processing, 'Multi Model Data Analysis for Annotation of Human Activities' with the use of Python, PyTorch, Tensorflow, and Sklearn, and 'LLMGuard' which involved machine learning models trained for detecting hate speech and bias. Although the applicant lacks direct experience with MERN stack technologies, the demonstrated skills in Python, PyTorch, and ReactJS showcase a strong foundation in programming and machine learning, indicating the potential for quick learning and adaptation to the technologies required by the company. The diverse project experience also indicates the ability to work on complex projects and analytical problem-solving skills.</t>
+          <t>The applicant has been given a score based on the relevance of his projects and skills to the job description. The applicant's projects demonstrate experience in computer vision, machine learning, and web development, which are valuable for the SDE Intern position. Although the applicant's skills cover a wide range of technologies, including Python, PyTorch, Tensorflow, and ReactJS, there is a lack of direct experience with MongoDB, ExpressJS, and NodeJS, which are crucial for this role. Therefore, the score has been calculated based on the strong technical background in relevant areas and the slight lack of experience with specific technologies required by the company.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has expressed a keen interest in working in Japan, stating admiration for the country's work culture, a willingness to learn a new language, and an openness to adapting to new cultures. The applicant's responses also demonstrate good communication skills, an inclination towards teamwork, and problem-solving abilities, as evident from the example of overcoming project setbacks and learning from the experience. The applicant also expresses a desire for personal and professional growth during the internship, indicating an adaptable and focused attitude. However, the hesitancy to work alone and the need to improve in acquiring new skills may require some support and mentorship in a new work environment. Overall, the applicant shows strong potential for fitting into the company's culture and working effectively in a cross-cultural setting.</t>
+          <t>Based on the applicant's answers and considering the soft skills that the company is looking for, I would rate the applicant 4 out of 5. The applicant has demonstrated good adaptability, communication skills, and expressed a willingness to work in Japan. Additionally, the applicant has shown a collaborative approach to problem-solving and emphasized the importance of teamwork. However, the applicant mentioned a preference not to work alone, which could be a potential area for improvement in terms of independence and self-reliance.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has a high score due to the relevant projects that showcase skills in ReactJS, JavaScript, and Python, which are in line with the required skills for the SDE Intern position. Additionally, the applicant has demonstrated proficiency in Computer Vision and Image Processing, which could add value to the company's projects. However, the applicant lacks experience with MongoDB and NodeJS, which are also essential for the role, resulting in a lower but still moderate score.</t>
+          <t>The applicant has a diverse set of technical skills including JavaScript, PyTorch, Django, Data Analysis, Computer Vision, Python, and TensorFlow. Although the applicant's projects do not directly mention experience with MongoDB or NodeJS, the projects showcase strong technical abilities in web development, backend development, AI/ML, and data analysis. The applicant's experience in developing user-friendly platforms and working on cutting-edge AI/ML technologies demonstrates the potential to excel in a Remote MERN stack developer intern role.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant demonstrates strong communication skills, adaptability, and a willingness to learn new skills, as evidenced by the desire to work in Japan to experience a new work culture and learn a new language. The applicant's collaborative nature, problem-solving approach, and ability to bridge the gap between technical and creative aspects in projects showcase strong teamwork and problem-solving skills. Hence, a score of 4 is suitable based on the applicant's personality and willingness to work in Japan.</t>
+          <t>The applicant has expressed a strong interest in working in Japan and has demonstrated adaptability and willingness to embrace a new culture. The applicant's eagerness to learn a new language, appreciation of Japanese work culture, and openness to working in diverse locations showcase a positive attitude. Furthermore, the applicant's collaborative problem-solving approach and the ability to bridge the gap between technical and creative aspects highlight strong teamwork and problem-solving skills. Based on the provided answers, the applicant exhibits strong potential for adapting to a new work environment in Japan, thus deserving a score of 4.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has been given a score based on the projects and skills which align with the job description. The applicant has experience with web and mobile application development using technologies such as Flutter, Dart, Firebase, NodeJS, ExpressJS, ReactJS, WebRTC, HTML, and CSS. Although the applicant's projects do not directly align with the specific technologies mentioned in the job description such as MongoDB, the applicant's experience with web and mobile application development using NodeJS, ExpressJS, ReactJS, and other relevant technologies demonstrates a strong skill set that is transferable to the job requirements. It is evident that the applicant has a good understanding of web development and possesses a variety of relevant technical skills. The score reflects the alignment of the applicant's projects and skills with the responsibilities and requirements of the SDE Intern position.</t>
+          <t>The applicant has worked on diverse projects that showcase proficiency in web development and real-time application development, aligning with the job description's emphasis on web/mobile applications using MongoDB, ExpressJS, ReactJS, and NodeJS. The SHAMIYANA APP demonstrates skills in Flutter, Dart, and Firebase, while the RAPID project exhibits expertise in NodeJS, ExpressJS, Socket.IO, WebRTC, and Docker. Moreover, the SMART SENSING MIDDLEWARE project illustrates competence in ReactJS, HTML, and CSS, which are relevant to web development. Although the applicant lacks experience specifically with MongoDB, their strong foundation in web technologies and real-time applications positions them as a highly suitable candidate for the SDE Intern role.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated a strong interest in working in Japan and adapting to a new culture. Their responses indicate a positive attitude towards embracing the work culture in Japan and learning a new language. They have expressed willingness to work in various countries, including Japan, and are confident about adapting to new cultures. Additionally, the applicant acknowledges their strengths in teamwork and communication, essential soft skills required for the job. Overall, the applicant's responses reflect a positive attitude, adaptability, and willingness to work in Japan, leading to a score of 4 out of 5.</t>
+          <t>The applicant has expressed a strong interest in Japan and its work culture, demonstrating adaptability and a willingness to embrace new experiences. Additionally, the applicant's emphasis on team collaboration and problem-solving, as evidenced by their response to overcoming technical challenges, signifies a favorable personality fit for the company. Therefore, the applicant is given a score of 4 for demonstrating a positive attitude towards working in Japan and exhibiting key soft skills sought by the company.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has been given a score based on the relevance of his projects and skills to the job description. The applicant's projects demonstrate experience in computer vision, machine learning, and web development, which are valuable for the SDE Intern position. Although the applicant's skills cover a wide range of technologies, including Python, PyTorch, Tensorflow, and ReactJS, there is a lack of direct experience with MongoDB, ExpressJS, and NodeJS, which are crucial for this role. Therefore, the score has been calculated based on the strong technical background in relevant areas and the slight lack of experience with specific technologies required by the company.</t>
+          <t>The applicant has strong technical skills in Python, PyTorch, Tensorflow, and ReactJS which align well with the company's requirements. Although the applicant lacks direct experience in MongoDB, ExpressJS, and NodeJS, the applicant's expertise in web development and JavaScript, as well as experience with similar technologies, demonstrates the ability to quickly adapt and learn new technologies. The applicant's projects showcase a blend of machine learning, web development, and AI, indicating a diverse skill set that can contribute to high-quality web/mobile applications. The applicant's score reflects the alignment of their skills and project experiences with the job responsibilities and technical requirements.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Based on the applicant's answers and considering the soft skills that the company is looking for, I would rate the applicant 4 out of 5. The applicant has demonstrated good adaptability, communication skills, and expressed a willingness to work in Japan. Additionally, the applicant has shown a collaborative approach to problem-solving and emphasized the importance of teamwork. However, the applicant mentioned a preference not to work alone, which could be a potential area for improvement in terms of independence and self-reliance.</t>
+          <t>The applicant has displayed strong communication skills by articulating a clear desire to be part of Japan's work culture and expressing willingness to adapt to new cultures. Their commitment to learning new skills and the ability to work well in a team is evident from their responses. Furthermore, their demonstration of problem-solving abilities during challenging project situations signifies their potential to handle complexities in a new work environment. Overall, the applicant's responses convey a positive attitude and a strong willingness to work in Japan, earning them a score of 4.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,11 +465,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>73.65000000000001</v>
+        <v>70.06</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has a diverse set of technical skills including JavaScript, PyTorch, Django, Data Analysis, Computer Vision, Python, and TensorFlow. Although the applicant's projects do not directly mention experience with MongoDB or NodeJS, the projects showcase strong technical abilities in web development, backend development, AI/ML, and data analysis. The applicant's experience in developing user-friendly platforms and working on cutting-edge AI/ML technologies demonstrates the potential to excel in a Remote MERN stack developer intern role.</t>
+          <t>The applicant has strong skills in ReactJS and JavaScript, which are required for the job. Additionally, the applicant has experience in web development using Django and Python, which can be beneficial for the role. However, the job requires expertise in MongoDB and NodeJS, which are not explicitly mentioned in the applicant's projects or skills. Furthermore, the applicant lacks specific experience in MongoDB and NodeJS, which are essential for the position. Although the applicant's projects showcase proficiency in ReactJS and JavaScript, the absence of direct experience in MongoDB and NodeJS could impact the applicant's suitability for the role.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has expressed a strong interest in working in Japan and has demonstrated adaptability and willingness to embrace a new culture. The applicant's eagerness to learn a new language, appreciation of Japanese work culture, and openness to working in diverse locations showcase a positive attitude. Furthermore, the applicant's collaborative problem-solving approach and the ability to bridge the gap between technical and creative aspects highlight strong teamwork and problem-solving skills. Based on the provided answers, the applicant exhibits strong potential for adapting to a new work environment in Japan, thus deserving a score of 4.</t>
+          <t>Based on the applicant's responses and demonstrated adaptability, it is evident that the applicant possesses strong communication and problem-solving skills. The applicant's willingness to learn from the Japanese work culture and the ability to adapt to diverse cultures indicate a high level of adaptability and open-mindedness. Furthermore, the applicant's conscious effort to seek feedback and implement it, as well as the desire for continuous improvement, reflects a strong commitment to personal and professional growth. Overall, the applicant demonstrates a willingness to work in Japan and exhibits positive personality traits, warranting a score of 4 out of 5.</t>
         </is>
       </c>
     </row>
@@ -486,11 +486,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>79.92</v>
+        <v>90.53</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has worked on diverse projects that showcase proficiency in web development and real-time application development, aligning with the job description's emphasis on web/mobile applications using MongoDB, ExpressJS, ReactJS, and NodeJS. The SHAMIYANA APP demonstrates skills in Flutter, Dart, and Firebase, while the RAPID project exhibits expertise in NodeJS, ExpressJS, Socket.IO, WebRTC, and Docker. Moreover, the SMART SENSING MIDDLEWARE project illustrates competence in ReactJS, HTML, and CSS, which are relevant to web development. Although the applicant lacks experience specifically with MongoDB, their strong foundation in web technologies and real-time applications positions them as a highly suitable candidate for the SDE Intern role.</t>
+          <t>The applicant has a strong set of technical skills including ReactJS, NodeJS, ExpressJS, HTML, CSS, and WebRTC which are relevant to the job description. However, the applicant lacks experience with MongoDB and could benefit from gaining more exposure to this technology. Although the projects the applicant has worked on demonstrate proficiency in web and mobile application development, the absence of MongoDB in the projects may raise some concerns about the candidate's hands-on experience with the technology required by the company. Overall, the applicant's technical skills align well with the job requirements, but there is room for improvement in MongoDB.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has expressed a strong interest in Japan and its work culture, demonstrating adaptability and a willingness to embrace new experiences. Additionally, the applicant's emphasis on team collaboration and problem-solving, as evidenced by their response to overcoming technical challenges, signifies a favorable personality fit for the company. Therefore, the applicant is given a score of 4 for demonstrating a positive attitude towards working in Japan and exhibiting key soft skills sought by the company.</t>
+          <t>The applicant has expressed a strong interest in working in Japan, highlighting the appeal of Japan's work culture and expressing a willingness to adapt to a new environment. The applicant has also demonstrated the ability to work collaboratively and has highlighted the value of teamwork and open communication. These qualities align with the soft skills the company is seeking, indicating a good fit in terms of adaptability and teamwork. Overall, the applicant's responses and attitudes suggest a positive willingness to work in Japan, earning a score of 4.</t>
         </is>
       </c>
     </row>
@@ -507,11 +507,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>74.67</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has strong technical skills in Python, PyTorch, Tensorflow, and ReactJS which align well with the company's requirements. Although the applicant lacks direct experience in MongoDB, ExpressJS, and NodeJS, the applicant's expertise in web development and JavaScript, as well as experience with similar technologies, demonstrates the ability to quickly adapt and learn new technologies. The applicant's projects showcase a blend of machine learning, web development, and AI, indicating a diverse skill set that can contribute to high-quality web/mobile applications. The applicant's score reflects the alignment of their skills and project experiences with the job responsibilities and technical requirements.</t>
+          <t>The applicant possesses strong technical skills in Python, Django Rest Framework, ReactJS, PyTorch, and Tensorflow, which demonstrate proficiency in web and machine learning technologies. However, the job requires expertise in MongoDB, ExpressJS, and NodeJS, which are not evident from the applicant's projects. Additionally, the applicant lacks experience in web/mobile application development using the MERN stack as per the company's requirements.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has displayed strong communication skills by articulating a clear desire to be part of Japan's work culture and expressing willingness to adapt to new cultures. Their commitment to learning new skills and the ability to work well in a team is evident from their responses. Furthermore, their demonstration of problem-solving abilities during challenging project situations signifies their potential to handle complexities in a new work environment. Overall, the applicant's responses convey a positive attitude and a strong willingness to work in Japan, earning them a score of 4.</t>
+          <t>The applicant's responses reflect a high level of adaptability, as well as a positive attitude towards learning and working within a new cultural setting like Japan. The applicant's strong teamwork skills and willingness to address weaknesses indicate a good fit for the company's requirements. Overall, the applicant's positive attitude and adaptability make them suitable for the role and working in Japan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>75.81999999999999</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The applicant has strong skills in JavaScript, HTML, CSS, and API integration, which are essential for web development. While the applicant's projects do not specifically mention MERN stack technologies, the experience in developing web and mobile applications, messaging, file sharing, and screen sharing/recording demonstrate a strong foundation in web development. The applicant's background in engineering and graphic design sets them apart and showcases their ability to bridge technical and creative aspects in projects.</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The applicant has demonstrated strong communication skills, adaptability, and a willingness to work in Japan. They have expressed a keen interest in Japan's AI field and work culture. Additionally, the applicant has emphasized their ability to adapt to new cultures and learn a new language while working in Japan. Their commitment to collaborating within a team and addressing weaknesses also shows a positive attitude towards personal and professional growth.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has strong skills in ReactJS and JavaScript, which are required for the job. Additionally, the applicant has experience in web development using Django and Python, which can be beneficial for the role. However, the job requires expertise in MongoDB and NodeJS, which are not explicitly mentioned in the applicant's projects or skills. Furthermore, the applicant lacks specific experience in MongoDB and NodeJS, which are essential for the position. Although the applicant's projects showcase proficiency in ReactJS and JavaScript, the absence of direct experience in MongoDB and NodeJS could impact the applicant's suitability for the role.</t>
+          <t>The applicant's projects demonstrate strong skills in ReactJS, Django, Python, and JavaScript, all of which are highly relevant to the job description. The applicant has experience in developing web applications and backend systems, displaying proficiency in MongoDB, ExpressJS, and NodeJS. Additionally, the applicant has worked on projects involving computer vision and image processing, showcasing a diverse skill set. However, the applicant lacks direct experience with MongoDB, which is a required skill for the job. While the applicant's projects demonstrate strong technical skills, the lack of direct MongoDB experience could be a potential area for further development.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Based on the applicant's responses and demonstrated adaptability, it is evident that the applicant possesses strong communication and problem-solving skills. The applicant's willingness to learn from the Japanese work culture and the ability to adapt to diverse cultures indicate a high level of adaptability and open-mindedness. Furthermore, the applicant's conscious effort to seek feedback and implement it, as well as the desire for continuous improvement, reflects a strong commitment to personal and professional growth. Overall, the applicant demonstrates a willingness to work in Japan and exhibits positive personality traits, warranting a score of 4 out of 5.</t>
+          <t>The applicant has demonstrated a willingness to learn, grow, and adapt through proactive participation in workshops and online courses to enhance skills. The applicant also exhibits a strong commitment to self-improvement and learning from setbacks, indicating good problem-solving skills and adaptability. The applicant's expressed interest in Japanese work culture and values, as well as their desire to work in Japan, align well with the company's cultural expectations. The applicant's detailed expectations from the company and clear career plan reflect strong communication and time management skills. Overall, the applicant's responses indicate a positive attitude, adaptability, and a strong alignment with the company's soft skill requirements.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a strong set of technical skills including ReactJS, NodeJS, ExpressJS, HTML, CSS, and WebRTC which are relevant to the job description. However, the applicant lacks experience with MongoDB and could benefit from gaining more exposure to this technology. Although the projects the applicant has worked on demonstrate proficiency in web and mobile application development, the absence of MongoDB in the projects may raise some concerns about the candidate's hands-on experience with the technology required by the company. Overall, the applicant's technical skills align well with the job requirements, but there is room for improvement in MongoDB.</t>
+          <t>The applicant has a high level of skill in ReactJS, NodeJS, and WebRTC, which are all relevant to the job requirements. Although the applicant does not have direct experience with MongoDB, the candidate's experience with Firebase, Docker, and ExpressJS demonstrates a strong foundation in database management and backend development, which can be transferrable to working with MongoDB. The applicant's project experience in developing a time-saving food delivery platform and a web app for real-time gaming and video calling shows the ability to work on web and mobile applications, which aligns with the responsibilities of the SDE Intern position. The use of technologies like Flutter, Dart, and ReactJS in the 'SHAMIYANA APP' project indicates the ability to work on front-end development. Overall, the applicant's diverse skill set and experience make them well-suited for the role, earning a high score.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has expressed a strong interest in working in Japan, highlighting the appeal of Japan's work culture and expressing a willingness to adapt to a new environment. The applicant has also demonstrated the ability to work collaboratively and has highlighted the value of teamwork and open communication. These qualities align with the soft skills the company is seeking, indicating a good fit in terms of adaptability and teamwork. Overall, the applicant's responses and attitudes suggest a positive willingness to work in Japan, earning a score of 4.</t>
+          <t>Based on the applicant's answers, it is evident that the applicant possesses strong communication skills as reflected in the clear articulation of career plans and expectations from the company. The applicant also expresses a willingness to adapt to new cultures and an interest in learning new skills, illustrating strong adaptability. Additionally, the applicant's acknowledgment of strengths in teamwork and open communication, along with the ability to address challenges collaboratively, demonstrates good problem-solving and teamwork skills. Overall, the applicant's responses reflect a positive attitude, strong teamwork skills, and adaptability, warranting a score of 4.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant possesses strong technical skills in Python, Django Rest Framework, ReactJS, PyTorch, and Tensorflow, which demonstrate proficiency in web and machine learning technologies. However, the job requires expertise in MongoDB, ExpressJS, and NodeJS, which are not evident from the applicant's projects. Additionally, the applicant lacks experience in web/mobile application development using the MERN stack as per the company's requirements.</t>
+          <t>The applicant has worked on several projects showcasing strong technical skills, including computer vision, image processing, and backend development using Django Rest Framework and ReactJS. While the specific skills required by the company, such as MongoDB and NodeJS, are not directly demonstrated in the projects, the applicant's broad skill set and experience with related technologies make them well-equipped to learn and adapt to the company's tech stack. The applicant's experience in predicting human activities using data analysis and machine learning aligns with the company's focus on web/mobile applications and product enhancement suggestions, demonstrating their potential to contribute effectively to the role.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant's responses reflect a high level of adaptability, as well as a positive attitude towards learning and working within a new cultural setting like Japan. The applicant's strong teamwork skills and willingness to address weaknesses indicate a good fit for the company's requirements. Overall, the applicant's positive attitude and adaptability make them suitable for the role and working in Japan.</t>
+          <t>The applicant has exhibited strong communication skills, expressing eagerness to immerse themselves in Japan's AI industry and adapt to a new culture. Their interest in contributing to cutting-edge AI/ML technologies and desire to learn new skills align with the company's emphasis on problem solving and adaptability. The applicant's ability to recognize the importance of collaboration and open communication, as evidenced by their experience with project setbacks, indicates their potential to excel in a team-oriented environment. Given their positive attitude towards adapting to different cultures and their clear career goals, the applicant demonstrates a high level of enthusiasm and adaptability, earning a score of 4 out of 5 for their willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant has strong skills in JavaScript, HTML, CSS, and API integration, which are essential for web development. While the applicant's projects do not specifically mention MERN stack technologies, the experience in developing web and mobile applications, messaging, file sharing, and screen sharing/recording demonstrate a strong foundation in web development. The applicant's background in engineering and graphic design sets them apart and showcases their ability to bridge technical and creative aspects in projects.</t>
+          <t>The applicant has good experience working on web development projects such as the Video Conferencing Project, TEDxIITGuwahati Website, and the Alcheringa Pass Portal, which involved JavaScript, HTML, and CSS. These projects demonstrate the applicant's ability to work with front-end technologies and API integration. Although the applicant's projects do not directly align with the MERN stack, the skills obtained from these projects are transferrable and can be utilized in the internship. The applicant has experience in API integration, JavaScript, HTML, and CSS, which are crucial for web development. Overall, the applicant's projects showcase a strong foundation in web development and the ability to work with relevant technologies, indicating a good potential fit for the MERN Stack Developer Internship. However, the applicant could benefit from further experience with MongoDB, ExpressJS, and NodeJS to fully align with the job requirements.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated strong communication skills, adaptability, and a willingness to work in Japan. They have expressed a keen interest in Japan's AI field and work culture. Additionally, the applicant has emphasized their ability to adapt to new cultures and learn a new language while working in Japan. Their commitment to collaborating within a team and addressing weaknesses also shows a positive attitude towards personal and professional growth.</t>
+          <t>Based on the applicant's responses, it is evident that they possess excellent communication skills and demonstrate a willingness to adapt to new cultures. The applicant's interest in being part of Japan's work culture and their openness to working in various countries showcase a strong level of adaptability. Additionally, the applicant has emphasized the importance of teamwork and collaboration, reflecting positive attributes that align with the company's soft skill requirements. The applicant's proactive approach to addressing weaknesses and their ability to learn from challenges further illustrate their problem-solving skills. Overall, the applicant exhibits strong attributes that align with the company's soft skill requirements and shows a high level of willingness to work in Japan.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant's projects demonstrate strong skills in ReactJS, Django, Python, and JavaScript, all of which are highly relevant to the job description. The applicant has experience in developing web applications and backend systems, displaying proficiency in MongoDB, ExpressJS, and NodeJS. Additionally, the applicant has worked on projects involving computer vision and image processing, showcasing a diverse skill set. However, the applicant lacks direct experience with MongoDB, which is a required skill for the job. While the applicant's projects demonstrate strong technical skills, the lack of direct MongoDB experience could be a potential area for further development.</t>
+          <t>The applicant has a strong background in web development and backend technologies, demonstrated through their projects focused on building user-friendly UIs and backend systems using ReactJS, Django, and Python. They also have experience in computer vision and data analysis which showcases their diverse technical skills. However, they lack direct experience in MongoDB and NodeJS, which are specific requirements for the job. Despite this, their overall technical abilities and the diverse nature of their projects make them a strong candidate for the role.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated a willingness to learn, grow, and adapt through proactive participation in workshops and online courses to enhance skills. The applicant also exhibits a strong commitment to self-improvement and learning from setbacks, indicating good problem-solving skills and adaptability. The applicant's expressed interest in Japanese work culture and values, as well as their desire to work in Japan, align well with the company's cultural expectations. The applicant's detailed expectations from the company and clear career plan reflect strong communication and time management skills. Overall, the applicant's responses indicate a positive attitude, adaptability, and a strong alignment with the company's soft skill requirements.</t>
+          <t>The applicant has demonstrated a high level of communication skills and adaptability in their answers. They have shown a willingness to learn from Japanese work culture, as well as an open-mindedness and adaptability to different cultures. Their proactive approach to seeking feedback and improving their skills displays a strong commitment to self-improvement and problem-solving. Overall, the applicant's responses indicate a good fit for the company's soft skill requirements and an eagerness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a high level of skill in ReactJS, NodeJS, and WebRTC, which are all relevant to the job requirements. Although the applicant does not have direct experience with MongoDB, the candidate's experience with Firebase, Docker, and ExpressJS demonstrates a strong foundation in database management and backend development, which can be transferrable to working with MongoDB. The applicant's project experience in developing a time-saving food delivery platform and a web app for real-time gaming and video calling shows the ability to work on web and mobile applications, which aligns with the responsibilities of the SDE Intern position. The use of technologies like Flutter, Dart, and ReactJS in the 'SHAMIYANA APP' project indicates the ability to work on front-end development. Overall, the applicant's diverse skill set and experience make them well-suited for the role, earning a high score.</t>
+          <t>The applicant has a good understanding of web and mobile application development as evident from the projects SHAMIYANA APP, RAPID, and SMART SENSING MIDDLEWARE. While the job requires expertise in MongoDB, ReactJS, NodeJS, and web development, the applicant has demonstrated skills in ReactJS, NodeJS, ExpressJS, Socket.IO, HTML, CSS, and JavaScript which align well with the required skill set. The applicant's experience with utilizing WebSockets, WebRTC, and Docker in the RAPID project showcases adaptability and problem-solving skills. Although the applicant's primary experience is not with the MERN stack, the projects display a solid grasp of relevant technologies, indicating an aptitude for learning new frameworks. Overall, the applicant's projects demonstrate proficiency in core technologies and adaptability, making the candidate well-suited for the SDE Intern position.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Based on the applicant's answers, it is evident that the applicant possesses strong communication skills as reflected in the clear articulation of career plans and expectations from the company. The applicant also expresses a willingness to adapt to new cultures and an interest in learning new skills, illustrating strong adaptability. Additionally, the applicant's acknowledgment of strengths in teamwork and open communication, along with the ability to address challenges collaboratively, demonstrates good problem-solving and teamwork skills. Overall, the applicant's responses reflect a positive attitude, strong teamwork skills, and adaptability, warranting a score of 4.</t>
+          <t>The applicant has expressed a keen interest in being a part of Japan's work culture and is willing to adapt to new environments. The answers indicate good communication skills, teamwork, adaptability, and problem-solving abilities. The applicant's eagerness to contribute to cutting-edge technologies during the internship aligns with the company's expectations. The willingness to learn a new language and the acknowledgment of working well within a team further highlights the applicant's positive attitude and openness to different cultures. The applicant's capability to address setbacks, bridge the gap between technical and creative aspects, and specialize in data analytics demonstrates strong problem-solving abilities, adaptability, and valuable skills that can contribute positively to the company's work culture.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has worked on several projects showcasing strong technical skills, including computer vision, image processing, and backend development using Django Rest Framework and ReactJS. While the specific skills required by the company, such as MongoDB and NodeJS, are not directly demonstrated in the projects, the applicant's broad skill set and experience with related technologies make them well-equipped to learn and adapt to the company's tech stack. The applicant's experience in predicting human activities using data analysis and machine learning aligns with the company's focus on web/mobile applications and product enhancement suggestions, demonstrating their potential to contribute effectively to the role.</t>
+          <t>The applicant has experience working on projects such as 'Cloudphysician's Vital Extraction Challenge' where they used computer vision and image processing skills, and 'LLMGuard' where they worked on backend development with machine learning models and Rest APIs. Additionally, they developed a website for the Literature Society of the college, which required the use of Django Rest Framework and ReactJS, showcasing their web development skills. However, the applicant's projects do not directly align with the specific technologies mentioned in the job description, such as MongoDB and NodeJS. While the applicant possesses strong technical skills in AI/ML and web development, there is a gap in the direct experience with the required MERN stack technologies. This is why the applicant may not have received a higher score.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has exhibited strong communication skills, expressing eagerness to immerse themselves in Japan's AI industry and adapt to a new culture. Their interest in contributing to cutting-edge AI/ML technologies and desire to learn new skills align with the company's emphasis on problem solving and adaptability. The applicant's ability to recognize the importance of collaboration and open communication, as evidenced by their experience with project setbacks, indicates their potential to excel in a team-oriented environment. Given their positive attitude towards adapting to different cultures and their clear career goals, the applicant demonstrates a high level of enthusiasm and adaptability, earning a score of 4 out of 5 for their willingness to work in Japan.</t>
+          <t>The applicant has shown a strong willingness to adapt to new cultures by expressing interest in working in Japan and learning a new language. They have also demonstrated good teamwork and problem-solving skills through their project experiences. Additionally, their openness to work in Japan and the excitement to be a part of the work culture indicates their positive attitude and adaptability. Hence, the applicant seems well suited for the company's requirements regarding soft skills and willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant has good experience working on web development projects such as the Video Conferencing Project, TEDxIITGuwahati Website, and the Alcheringa Pass Portal, which involved JavaScript, HTML, and CSS. These projects demonstrate the applicant's ability to work with front-end technologies and API integration. Although the applicant's projects do not directly align with the MERN stack, the skills obtained from these projects are transferrable and can be utilized in the internship. The applicant has experience in API integration, JavaScript, HTML, and CSS, which are crucial for web development. Overall, the applicant's projects showcase a strong foundation in web development and the ability to work with relevant technologies, indicating a good potential fit for the MERN Stack Developer Internship. However, the applicant could benefit from further experience with MongoDB, ExpressJS, and NodeJS to fully align with the job requirements.</t>
+          <t>The applicant has a strong foundation in web development using JavaScript, HTML, and CSS as seen in their projects. Although the job requires skills in MongoDB, ReactJS, and NodeJS, the applicant's proficiency in API integration and web development still make them a suitable candidate. Their experience in implementing a video conferencing project demonstrates their ability to work on feature development, code maintenance, and product enhancement, as stated in the job description. However, the applicant lacks direct experience in the MERN stack, which might require some training or familiarization period.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Based on the applicant's responses, it is evident that they possess excellent communication skills and demonstrate a willingness to adapt to new cultures. The applicant's interest in being part of Japan's work culture and their openness to working in various countries showcase a strong level of adaptability. Additionally, the applicant has emphasized the importance of teamwork and collaboration, reflecting positive attributes that align with the company's soft skill requirements. The applicant's proactive approach to addressing weaknesses and their ability to learn from challenges further illustrate their problem-solving skills. Overall, the applicant exhibits strong attributes that align with the company's soft skill requirements and shows a high level of willingness to work in Japan.</t>
+          <t>The applicant has displayed good communication skills and teamwork capabilities through their collaborative project experiences. Their willingness to adapt to new cultures, particularly expressing interest in learning a new language while working in Japan, reflects a strong adaptability. Additionally, the applicant's career plan and expectations from the company align with stability, learning, and contributing to cutting-edge technologies, demonstrating a positive and motivated attitude towards work and personal development. Overall, the applicant exhibits the qualities of a proactive and adaptable individual, scoring high in soft skills.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -465,19 +465,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>70.06</v>
+        <v>76.95</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has a strong background in web development and backend technologies, demonstrated through their projects focused on building user-friendly UIs and backend systems using ReactJS, Django, and Python. They also have experience in computer vision and data analysis which showcases their diverse technical skills. However, they lack direct experience in MongoDB and NodeJS, which are specific requirements for the job. Despite this, their overall technical abilities and the diverse nature of their projects make them a strong candidate for the role.</t>
+          <t>The applicant possesses strong skills in Python, JavaScript, ReactJS, and Django, which align well with the requirements for the SDE Intern position. The applicant's experience in developing web and mobile applications using ReactJS and Django, and utilizing PyTorch, Sklearn, and Python for data analysis demonstrates a solid technical foundation. However, the applicant lacks direct experience with MongoDB and NodeJS, which are key requirements for the role. While the applicant has demonstrated proficiency in similar technologies, additional training or experience in MongoDB and NodeJS may be beneficial for ensuring a seamless fit into the role. Overall, the applicant's technical expertise and project experience make them a strong candidate for the position, with the potential for further development in MongoDB and NodeJS.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated a high level of communication skills and adaptability in their answers. They have shown a willingness to learn from Japanese work culture, as well as an open-mindedness and adaptability to different cultures. Their proactive approach to seeking feedback and improving their skills displays a strong commitment to self-improvement and problem-solving. Overall, the applicant's responses indicate a good fit for the company's soft skill requirements and an eagerness to work in Japan.</t>
+          <t>Based on the applicant's responses, it's evident that they exhibit strong adaptability, problem-solving skills, and a willingness to learn and improve. Their expressed interest in learning from the Japanese work culture, seeking feedback, and actively participating in relevant workshops and online courses demonstrates a proactive approach to personal and professional growth. The applicant's ability to overcome setbacks and their curiosity-driven mindset further reinforce their adaptability and problem-solving acumen. Additionally, their articulated vision for contributing to the company's goals, expectations from the company, and desire to immerse themselves in Japanese culture reflect a positive attitude and alignment with the company's values. The applicant's responses indicate a high level of motivation, adaptability, and a sincere interest in working in Japan.</t>
         </is>
       </c>
     </row>
@@ -486,11 +486,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>90.53</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a good understanding of web and mobile application development as evident from the projects SHAMIYANA APP, RAPID, and SMART SENSING MIDDLEWARE. While the job requires expertise in MongoDB, ReactJS, NodeJS, and web development, the applicant has demonstrated skills in ReactJS, NodeJS, ExpressJS, Socket.IO, HTML, CSS, and JavaScript which align well with the required skill set. The applicant's experience with utilizing WebSockets, WebRTC, and Docker in the RAPID project showcases adaptability and problem-solving skills. Although the applicant's primary experience is not with the MERN stack, the projects display a solid grasp of relevant technologies, indicating an aptitude for learning new frameworks. Overall, the applicant's projects demonstrate proficiency in core technologies and adaptability, making the candidate well-suited for the SDE Intern position.</t>
+          <t>The applicant has worked on projects that showcase his expertise in web and mobile application development. While the technologies used in the projects are not an exact match with the required skills of MongoDB, ExpressJS, ReactJS, and NodeJS, the applicant's skills in Flutter, Dart, WebRTC, Socket.IO, and HTML demonstrate an aptitude for web and mobile development. However, there is a gap in the required skills as the applicant lacks proficiency in MongoDB and JavaScript, which are essential for the role. Despite this, the applicant's diverse skill set and experience in developing functional applications display potential for growth and adaptability to the technologies used by the company.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has expressed a keen interest in being a part of Japan's work culture and is willing to adapt to new environments. The answers indicate good communication skills, teamwork, adaptability, and problem-solving abilities. The applicant's eagerness to contribute to cutting-edge technologies during the internship aligns with the company's expectations. The willingness to learn a new language and the acknowledgment of working well within a team further highlights the applicant's positive attitude and openness to different cultures. The applicant's capability to address setbacks, bridge the gap between technical and creative aspects, and specialize in data analytics demonstrates strong problem-solving abilities, adaptability, and valuable skills that can contribute positively to the company's work culture.</t>
+          <t>The applicant has expressed a deep interest in working in Japan, citing the country's leading position in AI and expressing fascination with the work culture. The applicant has also demonstrated openness to adapting to new cultures and learning a new language while working in Japan. Furthermore, the applicant has emphasized the desire to work with a team and the willingness to learn new skills, aligning with the company's soft skills requirements. The applicant's proactive approach to addressing weaknesses and ability to bridge technical and creative aspects in projects reflect an adaptable and team-oriented nature. Overall, the applicant's responses indicate a strong willingness to work in Japan and possess the necessary soft skills for the job.</t>
         </is>
       </c>
     </row>
@@ -507,11 +507,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>76.81999999999999</v>
+        <v>78.72</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has experience working on projects such as 'Cloudphysician's Vital Extraction Challenge' where they used computer vision and image processing skills, and 'LLMGuard' where they worked on backend development with machine learning models and Rest APIs. Additionally, they developed a website for the Literature Society of the college, which required the use of Django Rest Framework and ReactJS, showcasing their web development skills. However, the applicant's projects do not directly align with the specific technologies mentioned in the job description, such as MongoDB and NodeJS. While the applicant possesses strong technical skills in AI/ML and web development, there is a gap in the direct experience with the required MERN stack technologies. This is why the applicant may not have received a higher score.</t>
+          <t>The applicant possesses strong skills in Python, PyTorch, Tensorflow, and ReactJS, demonstrating proficiency in web and mobile application development. While the applicant's projects showcase extensive experience in computer vision, image processing, and backend development, there is a lack of direct experience with MongoDB, ExpressJS, and NodeJS, which are essential for the role. However, the applicant's versatility and experience in developing web applications using ReactJS could contribute to the role's responsibilities. Despite the gaps in experience with specific technologies, the applicant's strong foundation in relevant areas positions them as a promising candidate for the SDE Intern position.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has shown a strong willingness to adapt to new cultures by expressing interest in working in Japan and learning a new language. They have also demonstrated good teamwork and problem-solving skills through their project experiences. Additionally, their openness to work in Japan and the excitement to be a part of the work culture indicates their positive attitude and adaptability. Hence, the applicant seems well suited for the company's requirements regarding soft skills and willingness to work in Japan.</t>
+          <t>The applicant has exhibited a keen interest in being part of Japan's work culture, showcasing adaptability and a willingness to learn a new language while working in Japan. The applicant's responses convey a strong sense of commitment to pursuing a stable career in the field of AI/ML and backend development, aligning with the company's requirements. Furthermore, the applicant's acknowledgement of strengths in teamwork and openness about areas for improvement demonstrates a growth mindset and a potential for future development. Overall, the applicant's responses indicate a positive attitude and willingness to embrace the opportunities presented in Japan.</t>
         </is>
       </c>
     </row>
@@ -528,19 +528,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>75.81999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant has a strong foundation in web development using JavaScript, HTML, and CSS as seen in their projects. Although the job requires skills in MongoDB, ReactJS, and NodeJS, the applicant's proficiency in API integration and web development still make them a suitable candidate. Their experience in implementing a video conferencing project demonstrates their ability to work on feature development, code maintenance, and product enhancement, as stated in the job description. However, the applicant lacks direct experience in the MERN stack, which might require some training or familiarization period.</t>
+          <t>The applicant has worked on various web development projects such as a Video Conferencing Project, TEDxIITGuwahati Website, and Alcheringa Pass Portal, showcasing strong skills in JavaScript, HTML, and CSS. However, the job requires expertise in MongoDB, ReactJS, and NodeJS, which are not fully exhibited in the applicant's projects. While the applicant's experience in web development is commendable, there is a lack of direct experience with the specific technologies mentioned in the job description. This indicates potential gaps in the applicant's skillset with regards to the technologies required for the job.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The applicant has displayed good communication skills and teamwork capabilities through their collaborative project experiences. Their willingness to adapt to new cultures, particularly expressing interest in learning a new language while working in Japan, reflects a strong adaptability. Additionally, the applicant's career plan and expectations from the company align with stability, learning, and contributing to cutting-edge technologies, demonstrating a positive and motivated attitude towards work and personal development. Overall, the applicant exhibits the qualities of a proactive and adaptable individual, scoring high in soft skills.</t>
+          <t>The applicant has demonstrated an eagerness to work in Japan, expressing a genuine interest in the country's work culture and a willingness to adapt to a new environment. The applicant's openness to working in diverse locations demonstrates adaptability. Furthermore, the applicant's acknowledgment of strengths in teamwork aligns with the company's soft skill requirements. However, the applicant's admission of struggles with acquiring new skills and preference for working in a team may indicate a need for further development in individual problem-solving and time management skills, resulting in a score of 3 out of 5.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -469,15 +469,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant possesses strong skills in Python, JavaScript, ReactJS, and Django, which align well with the requirements for the SDE Intern position. The applicant's experience in developing web and mobile applications using ReactJS and Django, and utilizing PyTorch, Sklearn, and Python for data analysis demonstrates a solid technical foundation. However, the applicant lacks direct experience with MongoDB and NodeJS, which are key requirements for the role. While the applicant has demonstrated proficiency in similar technologies, additional training or experience in MongoDB and NodeJS may be beneficial for ensuring a seamless fit into the role. Overall, the applicant's technical expertise and project experience make them a strong candidate for the position, with the potential for further development in MongoDB and NodeJS.</t>
+          <t>The applicant possesses several key skills required by the company such as ReactJS, JavaScript, and some level of web development experience. While the applicant's projects are not directly in line with the company's requirements, the projects demonstrate a strong grasp of relevant technologies including ReactJS, Django, Python, JavaScript, and Computer Vision. However, the applicant lacks direct experience with MongoDB and NodeJS which are important for this role. Overall, the applicant has a good foundation in relevant technologies and has demonstrated the ability to learn new skills, presenting a strong case for potential success in the role.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Based on the applicant's responses, it's evident that they exhibit strong adaptability, problem-solving skills, and a willingness to learn and improve. Their expressed interest in learning from the Japanese work culture, seeking feedback, and actively participating in relevant workshops and online courses demonstrates a proactive approach to personal and professional growth. The applicant's ability to overcome setbacks and their curiosity-driven mindset further reinforce their adaptability and problem-solving acumen. Additionally, their articulated vision for contributing to the company's goals, expectations from the company, and desire to immerse themselves in Japanese culture reflect a positive attitude and alignment with the company's values. The applicant's responses indicate a high level of motivation, adaptability, and a sincere interest in working in Japan.</t>
+          <t>The applicant demonstrates strong communication skills and a willingness to learn from Japanese work culture, indicating adaptability and a positive attitude towards working in Japan. Moreover, the applicant's emphasis on seeking feedback, continuous self-improvement, and desire to experience Japanese cultural values align well with the company's soft skills requirements. The applicant's clear expression of interest in working in Japan further strengthens the likelihood of successful integration into the work culture.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has worked on projects that showcase his expertise in web and mobile application development. While the technologies used in the projects are not an exact match with the required skills of MongoDB, ExpressJS, ReactJS, and NodeJS, the applicant's skills in Flutter, Dart, WebRTC, Socket.IO, and HTML demonstrate an aptitude for web and mobile development. However, there is a gap in the required skills as the applicant lacks proficiency in MongoDB and JavaScript, which are essential for the role. Despite this, the applicant's diverse skill set and experience in developing functional applications display potential for growth and adaptability to the technologies used by the company.</t>
+          <t>The candidate has a strong technical background with experience in web and mobile application development utilizing technologies such as Flutter, Dart, Firebase, ReactJS, NodeJS, HTML, CSS, and WebRTC. Although the applicant's project experience primarily involves technologies such as Flutter, Dart, and Firebase, the candidate has demonstrated adaptability by working on a variety of projects involving different technology stacks. However, the required skills for the role include MongoDB, ExpressJS, and JavaScript, which are not directly reflected in the candidate's projects. While the candidate's projects showcase proficiency in relevant web and mobile technologies, there is a gap in direct experience with the specific technology stack mentioned in the job description. Despite this, the candidate's diverse skill set and demonstrated ability to learn new technologies provide a strong foundation for success in the role.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has expressed a deep interest in working in Japan, citing the country's leading position in AI and expressing fascination with the work culture. The applicant has also demonstrated openness to adapting to new cultures and learning a new language while working in Japan. Furthermore, the applicant has emphasized the desire to work with a team and the willingness to learn new skills, aligning with the company's soft skills requirements. The applicant's proactive approach to addressing weaknesses and ability to bridge technical and creative aspects in projects reflect an adaptable and team-oriented nature. Overall, the applicant's responses indicate a strong willingness to work in Japan and possess the necessary soft skills for the job.</t>
+          <t>The candidate has demonstrated strong adaptability, communication skills, and a willingness to embrace new challenges, as evidenced by the responses. The candidate's eagerness to work in Japan, learn a new language, and contribute to cutting-edge AI/ML technologies aligns with the company's values and culture. Furthermore, the applicant's proactive approach to addressing weaknesses and commitment to collaborative problem-solving reflect strong teamwork and problem-solving abilities. Overall, the candidate's responses indicate a high level of enthusiasm, adaptability, and alignment with the company's soft skill requirements, warranting a score of 4.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant possesses strong skills in Python, PyTorch, Tensorflow, and ReactJS, demonstrating proficiency in web and mobile application development. While the applicant's projects showcase extensive experience in computer vision, image processing, and backend development, there is a lack of direct experience with MongoDB, ExpressJS, and NodeJS, which are essential for the role. However, the applicant's versatility and experience in developing web applications using ReactJS could contribute to the role's responsibilities. Despite the gaps in experience with specific technologies, the applicant's strong foundation in relevant areas positions them as a promising candidate for the SDE Intern position.</t>
+          <t>The applicant has strong skills in Python, PyTorch, Django Rest Framework, and ReactJS, which are utilized in the projects 'LLMGuard', 'Multi Model Data Analysis for Annotation of Human Activities', and 'Website for the Literature Society of the college'. These projects demonstrate the applicant's proficiency in web development, machine learning, and backend development. However, the applicant lacks direct experience with MongoDB, ExpressJS, and NodeJS, which are the primary technologies mentioned in the job description. While the applicant's skills are impressive, there is a gap in the required MERN stack technologies, which may affect the ability to seamlessly transition to the role without additional training or orientation.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has exhibited a keen interest in being part of Japan's work culture, showcasing adaptability and a willingness to learn a new language while working in Japan. The applicant's responses convey a strong sense of commitment to pursuing a stable career in the field of AI/ML and backend development, aligning with the company's requirements. Furthermore, the applicant's acknowledgement of strengths in teamwork and openness about areas for improvement demonstrates a growth mindset and a potential for future development. Overall, the applicant's responses indicate a positive attitude and willingness to embrace the opportunities presented in Japan.</t>
+          <t>The applicant has exhibited a strong willingness to work in Japan by expressing interest in the AI field and the work culture of Japan. The applicant has shown adaptability by expressing a willingness to work in different countries, including Japan, and has highlighted the desire to learn a new language while working in Japan. Furthermore, the applicant has articulated the expectation of contributing to cutting-edge AI/ML technologies and learning new skills during the internship. The responses indicate good communication skills and a positive attitude towards teamwork and adaptability, aligning with the company's soft skill requirements.</t>
         </is>
       </c>
     </row>
@@ -532,15 +532,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant has worked on various web development projects such as a Video Conferencing Project, TEDxIITGuwahati Website, and Alcheringa Pass Portal, showcasing strong skills in JavaScript, HTML, and CSS. However, the job requires expertise in MongoDB, ReactJS, and NodeJS, which are not fully exhibited in the applicant's projects. While the applicant's experience in web development is commendable, there is a lack of direct experience with the specific technologies mentioned in the job description. This indicates potential gaps in the applicant's skillset with regards to the technologies required for the job.</t>
+          <t>The applicant has showcased proficiency in JavaScript, HTML, CSS, and API integration through their projects. These skills align well with the company's requirements for web development. However, the applicant's lack of experience in MongoDB, ExpressJS, and NodeJS could be a limiting factor as the job specifically requires knowledge of these technologies. While the applicant's projects demonstrate strong front-end development skills, the absence of back-end technology experience is a gap that needs to be addressed for this role. It's crucial for an SDE Intern in MERN stack development to possess comprehensive knowledge across the entire stack, which is currently lacking in the applicant's skill set.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated an eagerness to work in Japan, expressing a genuine interest in the country's work culture and a willingness to adapt to a new environment. The applicant's openness to working in diverse locations demonstrates adaptability. Furthermore, the applicant's acknowledgment of strengths in teamwork aligns with the company's soft skill requirements. However, the applicant's admission of struggles with acquiring new skills and preference for working in a team may indicate a need for further development in individual problem-solving and time management skills, resulting in a score of 3 out of 5.</t>
+          <t>The applicant displayed a strong willingness to work in Japan and adapt to a new culture. Their enthusiasm for Japan's AI advancements, interest in learning the Japanese language, and admiration for Japanese work culture demonstrate a high level of adaptability and openness. Additionally, the applicant's emphasis on wanting a stable job, expectations of a decent package, and focus on contributing to cutting-edge AI/ML technologies align with the company's objectives. The candidate's proactive approach to overcoming weaknesses and their experience in problem-solving within a team further indicate strong adaptability, teamwork, and problem-solving skills. Based on the provided answers, the applicant exhibits a positive attitude and a genuine interest in working in Japan.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -465,11 +465,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>76.95</v>
+        <v>74.02</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant possesses several key skills required by the company such as ReactJS, JavaScript, and some level of web development experience. While the applicant's projects are not directly in line with the company's requirements, the projects demonstrate a strong grasp of relevant technologies including ReactJS, Django, Python, JavaScript, and Computer Vision. However, the applicant lacks direct experience with MongoDB and NodeJS which are important for this role. Overall, the applicant has a good foundation in relevant technologies and has demonstrated the ability to learn new skills, presenting a strong case for potential success in the role.</t>
+          <t>The applicant possesses strong skills in TensorFlow, JavaScript, Scikit-learn, and Python which are crucial for the job role. Additionally, the applicant has experience in Django, ReactJS, and image processing, showcasing versatility and adaptability. However, the applicant lacks experience in PyTorch, and this could be a skill gap for the role. Nevertheless, the applicant's proficiency in Computer Vision and data analysis complements the job requirements, making the applicant a suitable candidate overall.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant demonstrates strong communication skills and a willingness to learn from Japanese work culture, indicating adaptability and a positive attitude towards working in Japan. Moreover, the applicant's emphasis on seeking feedback, continuous self-improvement, and desire to experience Japanese cultural values align well with the company's soft skills requirements. The applicant's clear expression of interest in working in Japan further strengthens the likelihood of successful integration into the work culture.</t>
+          <t>The applicant has exhibited a proactive and adaptable personality during the interview process, showcasing a willingness to embrace new opportunities. Their responses also indicate an open-minded approach and a high level of flexibility, which align with the soft skills required by the company. Overall, the applicant demonstrates a strong willingness to work in Japan, making them a good fit for the company's international expansion plans.</t>
         </is>
       </c>
     </row>
@@ -486,11 +486,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>89.06999999999999</v>
+        <v>89.42</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has a strong technical background with experience in web and mobile application development utilizing technologies such as Flutter, Dart, Firebase, ReactJS, NodeJS, HTML, CSS, and WebRTC. Although the applicant's project experience primarily involves technologies such as Flutter, Dart, and Firebase, the candidate has demonstrated adaptability by working on a variety of projects involving different technology stacks. However, the required skills for the role include MongoDB, ExpressJS, and JavaScript, which are not directly reflected in the candidate's projects. While the candidate's projects showcase proficiency in relevant web and mobile technologies, there is a gap in direct experience with the specific technology stack mentioned in the job description. Despite this, the candidate's diverse skill set and demonstrated ability to learn new technologies provide a strong foundation for success in the role.</t>
+          <t>The applicant has experience with ReactJS, Flutter, and NodeJS which are essential for this job role. However, the applicant lacks experience with WebRTC, Socket.IO, and Docker, which are required by the company. Despite having some relevant skills, the lack of experience in these key areas makes the applicant less suited for this job position.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The candidate has demonstrated strong adaptability, communication skills, and a willingness to embrace new challenges, as evidenced by the responses. The candidate's eagerness to work in Japan, learn a new language, and contribute to cutting-edge AI/ML technologies aligns with the company's values and culture. Furthermore, the applicant's proactive approach to addressing weaknesses and commitment to collaborative problem-solving reflect strong teamwork and problem-solving abilities. Overall, the candidate's responses indicate a high level of enthusiasm, adaptability, and alignment with the company's soft skill requirements, warranting a score of 4.</t>
+          <t>The applicant has demonstrated strong communication skills and adaptability, making them suitable for the company's soft skill requirements. Additionally, the applicant has shown an eagerness to experience new cultures, which aligns with the company's focus on diversity and global perspectives.</t>
         </is>
       </c>
     </row>
@@ -507,11 +507,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>78.72</v>
+        <v>77.25</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has strong skills in Python, PyTorch, Django Rest Framework, and ReactJS, which are utilized in the projects 'LLMGuard', 'Multi Model Data Analysis for Annotation of Human Activities', and 'Website for the Literature Society of the college'. These projects demonstrate the applicant's proficiency in web development, machine learning, and backend development. However, the applicant lacks direct experience with MongoDB, ExpressJS, and NodeJS, which are the primary technologies mentioned in the job description. While the applicant's skills are impressive, there is a gap in the required MERN stack technologies, which may affect the ability to seamlessly transition to the role without additional training or orientation.</t>
+          <t>The applicant possesses skills in PyTorch, TensorFlow, Django Rest Framework, Scikit-learn, and Keras, all of which are directly relevant to the job description provided by the company. The applicant also has experience in computer vision and image processing, which are additional valuable skills for the role. However, the applicant lacks experience in ReactJS and Python, which are among the required skills by the company. As a result, though the applicant has a strong background in the required technologies, the lack of experience in ReactJS and Python may impact the overall suitability for the role.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has exhibited a strong willingness to work in Japan by expressing interest in the AI field and the work culture of Japan. The applicant has shown adaptability by expressing a willingness to work in different countries, including Japan, and has highlighted the desire to learn a new language while working in Japan. Furthermore, the applicant has articulated the expectation of contributing to cutting-edge AI/ML technologies and learning new skills during the internship. The responses indicate good communication skills and a positive attitude towards teamwork and adaptability, aligning with the company's soft skill requirements.</t>
+          <t>The applicant has demonstrated good adaptability and openness to new experiences, which are essential qualities for working in a new environment such as Japan. Additionally, the applicant's responses indicated a high level of cultural awareness and respect, aligning well with the interpersonal skills sought by the company. Therefore, based on the applicant's personality traits and willingness to work in a new cultural setting, a score of 4 is justified.</t>
         </is>
       </c>
     </row>
@@ -528,11 +528,11 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>70.89</v>
+        <v>82.91</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant has showcased proficiency in JavaScript, HTML, CSS, and API integration through their projects. These skills align well with the company's requirements for web development. However, the applicant's lack of experience in MongoDB, ExpressJS, and NodeJS could be a limiting factor as the job specifically requires knowledge of these technologies. While the applicant's projects demonstrate strong front-end development skills, the absence of back-end technology experience is a gap that needs to be addressed for this role. It's crucial for an SDE Intern in MERN stack development to possess comprehensive knowledge across the entire stack, which is currently lacking in the applicant's skill set.</t>
+          <t>The applicant has relevant skills in API integration, JavaScript, HTML, and CSS, which align with the required skills set by the company. However, the applicant lacks experience in specific technologies mentioned in the job description, such as Python, Java, and AI/ML. While the projects demonstrate proficiency in web development, the absence of experience in the required technologies may limit the applicant's suitability for the role.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The applicant displayed a strong willingness to work in Japan and adapt to a new culture. Their enthusiasm for Japan's AI advancements, interest in learning the Japanese language, and admiration for Japanese work culture demonstrate a high level of adaptability and openness. Additionally, the applicant's emphasis on wanting a stable job, expectations of a decent package, and focus on contributing to cutting-edge AI/ML technologies align with the company's objectives. The candidate's proactive approach to overcoming weaknesses and their experience in problem-solving within a team further indicate strong adaptability, teamwork, and problem-solving skills. Based on the provided answers, the applicant exhibits a positive attitude and a genuine interest in working in Japan.</t>
+          <t>The applicant exhibits a willingness to adapt and embrace new challenges, with a positive attitude towards relocation. Their responses reflect a strong sense of adaptability and open-mindedness, which are essential traits for thriving in a new environment. Moreover, the applicant demonstrates a keen interest in embracing the cultural aspects of Japan, indicating a genuine enthusiasm for the opportunity.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_1.xlsx
+++ b/main/results/jdk_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>tech_reason_ja</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>personality_score</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>personality_reason</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>personality_reason_ja</t>
         </is>
       </c>
     </row>
@@ -469,15 +479,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant possesses strong skills in TensorFlow, JavaScript, Scikit-learn, and Python which are crucial for the job role. Additionally, the applicant has experience in Django, ReactJS, and image processing, showcasing versatility and adaptability. However, the applicant lacks experience in PyTorch, and this could be a skill gap for the role. Nevertheless, the applicant's proficiency in Computer Vision and data analysis complements the job requirements, making the applicant a suitable candidate overall.</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+          <t>The applicant has worked on diverse projects showcasing strong technical skills in Python, Django, ReactJS, and JavaScript. While the applicant's skills do not directly match all the required skills for the job, the applicant's experience in web development, JavaScript, and ReactJS, and their ability to implement data analysis and computer vision algorithms demonstrate a strong technical foundation. The project 'LLMGuard' and 'Literature Society IITJ Website' exhibit the applicant's proficiency in ReactJS and Django, enhancing their suitability for web/mobile application development. However, the applicant lacks direct experience with MongoDB and NodeJS, which are essential for this role.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>応募者は、Python、Django、ReactJS、およびJavaScriptの強力な技術スキルを示す多様なプロジェクトに取り組んできました。応募者のスキルは、求められる全てのスキルと直接的には一致していませんが、ウェブ開発、JavaScript、ReactJSの経験、およびデータ解析やコンピュータビジョンアルゴリズムの実装能力は、強固な技術的基盤を示しています。 'LLMGuard'と 'Literature Society IITJ Website'プロジェクトは、ReactJSとDjangoの熟達度を示し、ウェブ/モバイルアプリケーション開発に適しています。ただし、モンゴDBとNodeJSの直接的な経験が不足しており、これらはこの役割にとって不可欠です。</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>The applicant has exhibited a proactive and adaptable personality during the interview process, showcasing a willingness to embrace new opportunities. Their responses also indicate an open-minded approach and a high level of flexibility, which align with the soft skills required by the company. Overall, the applicant demonstrates a strong willingness to work in Japan, making them a good fit for the company's international expansion plans.</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>The applicant has shown strong willingness to learn from Japanese work culture and has demonstrated adaptability, effective communication, and a desire for personal growth. The applicant's eagerness to work in Japan, appreciation for Japanese values, and the desire to immerse in Japanese culture indicate a high level of motivation and openness towards a foreign work environment. The applicant's active participation in workshops and online courses to improve skills reflects a proactive approach to self-improvement and professional development, aligning with the company's expectations.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>応募者は、日本の労働文化から学びたいという強い意欲を示し、適応性、効果的なコミュニケーション、および個人的な成長への欲求を示しています。日本で働く意欲、日本の価値観への感謝、日本文化に浸ることへの欲求は、外国の労働環境に対する高いモチベーションと開放性を示しています。自己向上と職業的成長に向けた積極的な姿勢は、会社の期待に合致しています。</t>
         </is>
       </c>
     </row>
@@ -490,15 +510,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has experience with ReactJS, Flutter, and NodeJS which are essential for this job role. However, the applicant lacks experience with WebRTC, Socket.IO, and Docker, which are required by the company. Despite having some relevant skills, the lack of experience in these key areas makes the applicant less suited for this job position.</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+          <t>The candidate has solid experience in web development and has worked on projects involving technologies such as ReactJS, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, and Docker. Although the projects do not directly involve MongoDB, the candidate's experience in backend and frontend technologies, along with database management using Firebase, demonstrates their strong technical skills and ability to adapt to new frameworks. The projects also showcase the candidate's proficiency in real-time communication and web application development, indicating their capability to design and develop web/mobile applications using MERN stack technologies. The candidate's diverse technical skill set and experience make them well-suited for the responsibilities of a Remote MERN Stack Developer Internship.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>応募者はウェブ開発において堅実な経験を持ち、ReactJS、NodeJS、ExpressJS、Socket.IO、WebRTC、HTML、CSS、およびDockerなどのテクノロジーを使用したプロジェクトに従事してきました。これらのプロジェクトは直接的にはMongoDBを含んでいませんが、応募者のバックエンドおよびフロントエンドの技術に対する経験と、Firebaseを使用したデータベース管理により、新しいフレームワークに適応する能力が示されています。また、プロジェクトは、リアルタイム通信とウェブアプリケーションの開発における応募者の熟練度を示しており、これはMERNスタック技術を使用してウェブ/モバイルアプリケーションを設計および開発する能力を示しています。応募者の多様な技術的スキルセットと経験は、リモートMERNスタック開発者インターンシップの責任に適しています。</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>The applicant has demonstrated strong communication skills and adaptability, making them suitable for the company's soft skill requirements. Additionally, the applicant has shown an eagerness to experience new cultures, which aligns with the company's focus on diversity and global perspectives.</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>The applicant has shown a strong willingness to adapt to new cultures and has expressed a keen interest in being a part of the work culture in Japan. The applicant's responses demonstrate good communication skills, adaptability, and a willingness to learn new skills during the internship. They have also emphasized the importance of teamwork and collaboration, showcasing strong problem-solving abilities. Overall, the applicant's attitude and responses align with the company's soft skill requirements, indicating a positive personality fit for the role.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>応募者は新しい文化に適応する意欲が強く、日本の職場文化の一部になりたいという強い興味を示しています。応募者の回答は、インターンシップ中に新しいスキルを学ぶ意欲や適応性、チームワークと協力の重要性を強調しており、強力な問題解決能力を示しています。全体として、応募者の態度と回答は、会社のソフトスキル要件と一致しており、役割に適したポジティブな人物像を示しています。</t>
         </is>
       </c>
     </row>
@@ -511,15 +541,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant possesses skills in PyTorch, TensorFlow, Django Rest Framework, Scikit-learn, and Keras, all of which are directly relevant to the job description provided by the company. The applicant also has experience in computer vision and image processing, which are additional valuable skills for the role. However, the applicant lacks experience in ReactJS and Python, which are among the required skills by the company. As a result, though the applicant has a strong background in the required technologies, the lack of experience in ReactJS and Python may impact the overall suitability for the role.</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+          <t>The applicant possesses strong skills in Pytorch, Tensorflow, Django Rest Framework, and ReactJS, which are relevant to web and mobile application development. Although the projects mentioned are not directly related to the technologies used in the job description, the applicant's expertise in Python, PyTorch, Tensorflow, and ReactJS showcases a strong foundation in programming, web development, and machine learning, indicating the ability to understand and potentially work with the required technologies. However, the applicant lacks direct experience with MongoDB, ExpressJS, and NodeJS, which are specifically mentioned in the job description.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>応募者はPytorch、Tensorflow、Django Rest Framework、およびReactJSのスキルを持っており、これらはWebおよびモバイルアプリケーション開発に関連しています。述べられたプロジェクトは求人内容で使用される技術と直接関連していませんが、Python、PyTorch、Tensorflow、およびReactJSの専門知識は、プログラミング、Web開発、および機械学習の強固な基盤を示しており、必要な技術を理解し、可能性があります。作業する能力。ただし、応募者は、発表されている技術を直接使用した経験がありません。MongoDB、ExpressJS、およびNodeJS。</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>The applicant has demonstrated good adaptability and openness to new experiences, which are essential qualities for working in a new environment such as Japan. Additionally, the applicant's responses indicated a high level of cultural awareness and respect, aligning well with the interpersonal skills sought by the company. Therefore, based on the applicant's personality traits and willingness to work in a new cultural setting, a score of 4 is justified.</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Based on the applicant's answers, it is evident that the candidate values teamwork, communication, and adaptability. The applicant expresses a deep interest in learning new skills and contributing to cutting-edge technologies, which aligns with the company's focus on innovation. The applicant's willingness to work in Japan and adapt to a new culture further reflects a positive attitude and openness to new experiences.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>応募者の回答に基づくと、候補者はチームワーク、コミュニケーション、および適応力を重視していることが明らかです。応募者は新しいスキルを学び、最先端の技術に貢献することに深い関心を示しており、これは企業の革新に関する関心と一致しています。応募者が日本で働く意欲と新しい文化に適応する意思は、積極的な姿勢と新しい体験へのオープンさを反映しています。</t>
         </is>
       </c>
     </row>
@@ -532,15 +572,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant has relevant skills in API integration, JavaScript, HTML, and CSS, which align with the required skills set by the company. However, the applicant lacks experience in specific technologies mentioned in the job description, such as Python, Java, and AI/ML. While the projects demonstrate proficiency in web development, the absence of experience in the required technologies may limit the applicant's suitability for the role.</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+          <t>The candidate has experience working on projects such as the Video Conferencing Project, TEDxIITGuwahati Website, and Alcheringa Pass Portal, which required strong JavaScript, HTML, and CSS skills. These projects demonstrate the applicant's ability to work on web-based applications, which aligns with the company's requirement for web development skills. However, the lack of direct experience with MongoDB, ReactJS, and NodeJS may be a drawback as these are key technologies that the company is specifically looking for. Despite this, the applicant's ability to work on complex web applications showcases a strong foundation in front-end development that can be further honed to include the required technologies.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>応募者は、ビデオ会議プロジェクト、TEDxIITグワハーティウェブサイト、およびAlcheringa Pass Portalなどのプロジェクトでの実務経験があり、これにより強力なJavaScript、HTML、およびCSSスキルが必要でした。これらのプロジェクトは、応募者がWebベースのアプリケーションで働く能力を示しており、会社のウェブ開発スキルの要件に合致しています。ただし、MongoDB、ReactJS、およびNodeJSとの直接的な経験の欠如は、同社が特に求めている主要な技術であるため、欠点となる可能性があります。しかし、複雑なWebアプリケーションでの作業能力は、必要な技術を含めるためにさらに磨かれることができるフロントエンド開発の堅実な基盤を示しています。</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>The applicant exhibits a willingness to adapt and embrace new challenges, with a positive attitude towards relocation. Their responses reflect a strong sense of adaptability and open-mindedness, which are essential traits for thriving in a new environment. Moreover, the applicant demonstrates a keen interest in embracing the cultural aspects of Japan, indicating a genuine enthusiasm for the opportunity.</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Based on the applicant's answers, it is evident that they have a strong interest in Japan and are willing to adapt to a new work culture and language. Their willingness to work in Japan, along with their clear career plan and expectations from the company, demonstrates a high level of enthusiasm and commitment. Additionally, the applicant's experience in collaborative problem-solving and their ability to work well within a team indicate good potential for fitting into the company's work environment.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>応募者の回答を基にすると、彼らは日本に強い興味を持ち、新しい職場の文化や言語に適応する意欲があることが明らかです。日本で働く意欲と、明確なキャリアプランや会社への期待から、熱意とコミットメントの高いレベルが示されています。さらに、応募者の協力的な問題解決への経験やチーム内での働きを良くできる能力は、会社の働く環境に適応する良い可能性を示しています。</t>
         </is>
       </c>
     </row>
